--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_12_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_12_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-752153.8929779858</v>
+        <v>-752378.0579574057</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.59519608</v>
+        <v>244259.5951960786</v>
       </c>
     </row>
     <row r="9">
@@ -1379,10 +1379,10 @@
         <v>7.439019878191289</v>
       </c>
       <c r="F11" t="n">
-        <v>4.906014657168178</v>
+        <v>7.439019878191289</v>
       </c>
       <c r="G11" t="n">
-        <v>7.439019878191289</v>
+        <v>4.90601465716829</v>
       </c>
       <c r="H11" t="n">
         <v>7.439019878191289</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7543371491237281</v>
+        <v>0.7543371491237849</v>
       </c>
       <c r="P11" t="n">
         <v>7.439019878191289</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.350201060390702</v>
+        <v>1.350201060390589</v>
       </c>
       <c r="Y11" t="n">
         <v>7.439019878191289</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.012421037435884</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.012421037435884</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="F14" t="n">
-        <v>8.012421037435884</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="G14" t="n">
-        <v>8.012421037435884</v>
+        <v>5.535081752804341</v>
       </c>
       <c r="H14" t="n">
-        <v>7.057340449773527</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>8.012421037435884</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.607500428412429</v>
+        <v>0.607500428412493</v>
       </c>
       <c r="P14" t="n">
         <v>7.292183157479997</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.203364339679297</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.693526680145932</v>
+        <v>8.012421037435988</v>
       </c>
     </row>
     <row r="15">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.18915825909244</v>
+        <v>10.18915825909261</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.568659629367858</v>
+        <v>5.568659629367971</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.86801373781975</v>
+        <v>15.86801373781964</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.937108268821191</v>
+        <v>9.937108268821078</v>
       </c>
       <c r="F20" t="n">
-        <v>18.57974169281249</v>
+        <v>18.57974169281273</v>
       </c>
       <c r="G20" t="n">
-        <v>18.57974169281249</v>
+        <v>18.57974169281273</v>
       </c>
       <c r="H20" t="n">
-        <v>18.57974169281249</v>
+        <v>18.57974169281273</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.876337080686451</v>
+        <v>9.876337080686483</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.57974169281249</v>
+        <v>18.57974169281273</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.36135577888666</v>
+        <v>14.3613557788866</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.430450309888101</v>
+        <v>8.430450309888045</v>
       </c>
       <c r="F23" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="G23" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="H23" t="n">
-        <v>26.93091603578154</v>
+        <v>26.93091603578148</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.369679121753361</v>
+        <v>8.36967912175345</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.749180492028756</v>
+        <v>3.749180492028824</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.36135577888666</v>
+        <v>14.36135577888655</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.430450309888101</v>
+        <v>8.430450309887988</v>
       </c>
       <c r="F26" t="n">
-        <v>31.20133358976506</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="G26" t="n">
-        <v>31.20133358976506</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="H26" t="n">
-        <v>26.93091603578154</v>
+        <v>26.93091603578142</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.369679121753361</v>
+        <v>8.369679121753393</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.20133358976506</v>
+        <v>31.20133358976494</v>
       </c>
     </row>
     <row r="27">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.36135577888666</v>
+        <v>14.3613557788866</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.430450309888101</v>
+        <v>8.430450309888045</v>
       </c>
       <c r="F29" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="G29" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="H29" t="n">
-        <v>26.93091603578154</v>
+        <v>26.93091603578148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.369679121753336</v>
+        <v>8.36967912175345</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.749180492028746</v>
+        <v>3.749180492028824</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
     </row>
     <row r="30">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.22409260198418</v>
+        <v>13.22409260198401</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.293187132985622</v>
+        <v>7.293187132985452</v>
       </c>
       <c r="F32" t="n">
-        <v>49.78107528257856</v>
+        <v>49.78107528257907</v>
       </c>
       <c r="G32" t="n">
-        <v>49.78107528257856</v>
+        <v>49.78107528257907</v>
       </c>
       <c r="H32" t="n">
-        <v>25.79365285887906</v>
+        <v>25.79365285887889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.611917315126277</v>
+        <v>2.61191731512622</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.06407041286258</v>
+        <v>30.06407041286241</v>
       </c>
     </row>
     <row r="33">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.53691378039019</v>
+        <v>13.53691378039014</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.606008311391633</v>
+        <v>7.606008311391577</v>
       </c>
       <c r="F35" t="n">
-        <v>42.34205540438727</v>
+        <v>42.34205540438778</v>
       </c>
       <c r="G35" t="n">
-        <v>42.34205540438727</v>
+        <v>42.34205540438778</v>
       </c>
       <c r="H35" t="n">
-        <v>26.10647403728504</v>
+        <v>26.106474037285</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.545237123256893</v>
+        <v>7.545237123256985</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.924738493532278</v>
+        <v>2.924738493532356</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.37689159126859</v>
+        <v>30.37689159126853</v>
       </c>
     </row>
     <row r="36">
@@ -3512,10 +3512,10 @@
         <v>7.783626211976639</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76865424514267</v>
+        <v>41.76865424514308</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76865424514267</v>
+        <v>41.76865424514308</v>
       </c>
       <c r="H38" t="n">
         <v>26.28409193787007</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.722855023841873</v>
+        <v>7.722855023842044</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>3.102356394117283</v>
+        <v>3.102356394117407</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>8.283613589176809</v>
       </c>
       <c r="F41" t="n">
-        <v>33.60024036635178</v>
+        <v>33.60024036635197</v>
       </c>
       <c r="G41" t="n">
-        <v>33.60024036635178</v>
+        <v>33.60024036635197</v>
       </c>
       <c r="H41" t="n">
         <v>26.78407931507024</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.222842401042044</v>
+        <v>8.222842401042215</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.602343771317464</v>
+        <v>3.602343771317578</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.36135577888672</v>
+        <v>14.36135577888666</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.430450309888158</v>
+        <v>8.430450309888101</v>
       </c>
       <c r="F44" t="n">
-        <v>31.20133358976511</v>
+        <v>31.20133358976506</v>
       </c>
       <c r="G44" t="n">
-        <v>31.20133358976511</v>
+        <v>31.20133358976506</v>
       </c>
       <c r="H44" t="n">
         <v>26.93091603578154</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.369679121753219</v>
+        <v>8.369679121753336</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.749180492028643</v>
+        <v>3.749180492028756</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.20133358976511</v>
+        <v>31.20133358976506</v>
       </c>
     </row>
     <row r="45">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.36391707158003</v>
+        <v>13.36391707158015</v>
       </c>
       <c r="C11" t="n">
-        <v>20.72854675098941</v>
+        <v>20.72854675098952</v>
       </c>
       <c r="D11" t="n">
-        <v>28.09317643039878</v>
+        <v>28.0931764303989</v>
       </c>
       <c r="E11" t="n">
-        <v>20.57901493727627</v>
+        <v>20.57901493727638</v>
       </c>
       <c r="F11" t="n">
-        <v>15.62344457650033</v>
+        <v>13.06485344415387</v>
       </c>
       <c r="G11" t="n">
         <v>8.109283083377818</v>
@@ -5036,19 +5036,19 @@
         <v>0.5951215902553031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5951215902553031</v>
+        <v>6.448274866466079</v>
       </c>
       <c r="J11" t="n">
-        <v>7.959751269664634</v>
+        <v>6.526748202227137</v>
       </c>
       <c r="K11" t="n">
-        <v>15.29980669038292</v>
+        <v>13.86680362294544</v>
       </c>
       <c r="L11" t="n">
-        <v>7.785645197260328</v>
+        <v>6.352642129822915</v>
       </c>
       <c r="M11" t="n">
-        <v>7.785645197260328</v>
+        <v>6.585555860824684</v>
       </c>
       <c r="N11" t="n">
         <v>8.871239799664238</v>
@@ -5060,31 +5060,31 @@
         <v>0.5951215902553031</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5951215902553031</v>
+        <v>0.6404973485471039</v>
       </c>
       <c r="R11" t="n">
-        <v>2.682813443631915</v>
+        <v>0.6404973485471039</v>
       </c>
       <c r="S11" t="n">
-        <v>7.662190474536999</v>
+        <v>7.662190474537027</v>
       </c>
       <c r="T11" t="n">
         <v>15.0268201539464</v>
       </c>
       <c r="U11" t="n">
-        <v>15.0268201539464</v>
+        <v>22.39144983335578</v>
       </c>
       <c r="V11" t="n">
-        <v>22.39144983335578</v>
+        <v>29.75607951276515</v>
       </c>
       <c r="W11" t="n">
         <v>29.75607951276515</v>
       </c>
       <c r="X11" t="n">
-        <v>28.39224005782506</v>
+        <v>28.39224005782518</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.87807856470255</v>
+        <v>20.87807856470266</v>
       </c>
     </row>
     <row r="12">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.18509049562049</v>
+        <v>14.64745544817698</v>
       </c>
       <c r="C14" t="n">
-        <v>24.11738732268201</v>
+        <v>22.57975227523861</v>
       </c>
       <c r="D14" t="n">
-        <v>32.04968414974353</v>
+        <v>30.51204910230024</v>
       </c>
       <c r="E14" t="n">
-        <v>23.95632956647496</v>
+        <v>22.41869451903156</v>
       </c>
       <c r="F14" t="n">
-        <v>15.8629749832064</v>
+        <v>14.32533993576289</v>
       </c>
       <c r="G14" t="n">
-        <v>7.769620399937827</v>
+        <v>8.734348266263554</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="I14" t="n">
-        <v>6.639515312709761</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="J14" t="n">
-        <v>9.228402861629377</v>
+        <v>8.573290510056507</v>
       </c>
       <c r="K14" t="n">
-        <v>16.71382663585183</v>
+        <v>14.28277434350823</v>
       </c>
       <c r="L14" t="n">
-        <v>8.62047205258318</v>
+        <v>6.189419760239556</v>
       </c>
       <c r="M14" t="n">
-        <v>8.62047205258318</v>
+        <v>6.189419760239556</v>
       </c>
       <c r="N14" t="n">
-        <v>8.62047205258318</v>
+        <v>8.62047205258337</v>
       </c>
       <c r="O14" t="n">
-        <v>8.006835256206989</v>
+        <v>8.006835256207115</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="R14" t="n">
-        <v>2.874053889875654</v>
+        <v>2.874053889875711</v>
       </c>
       <c r="S14" t="n">
-        <v>2.874053889875654</v>
+        <v>2.874053889875711</v>
       </c>
       <c r="T14" t="n">
-        <v>8.252793668558962</v>
+        <v>10.80635071693734</v>
       </c>
       <c r="U14" t="n">
-        <v>16.18509049562049</v>
+        <v>16.1850904956207</v>
       </c>
       <c r="V14" t="n">
-        <v>24.11738732268201</v>
+        <v>24.11738732268233</v>
       </c>
       <c r="W14" t="n">
-        <v>32.04968414974353</v>
+        <v>32.04968414974395</v>
       </c>
       <c r="X14" t="n">
-        <v>32.04968414974353</v>
+        <v>30.83416461471434</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.27844507888906</v>
+        <v>22.74081003144566</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="W15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="X15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="U16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="W16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="X16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6409936829948707</v>
+        <v>0.6409936829948791</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>50.32729987277008</v>
       </c>
       <c r="F17" t="n">
-        <v>33.98302217961274</v>
+        <v>33.98302217961273</v>
       </c>
       <c r="G17" t="n">
         <v>17.6387444864554</v>
@@ -5510,52 +5510,52 @@
         <v>1.294466793298061</v>
       </c>
       <c r="I17" t="n">
-        <v>8.999276715843914</v>
+        <v>5.715946341344993</v>
       </c>
       <c r="J17" t="n">
-        <v>8.999276715843914</v>
+        <v>21.73497290840844</v>
       </c>
       <c r="K17" t="n">
-        <v>18.19098878289742</v>
+        <v>21.73497290840844</v>
       </c>
       <c r="L17" t="n">
-        <v>7.898909733309101</v>
+        <v>11.44289385881995</v>
       </c>
       <c r="M17" t="n">
-        <v>9.983480110646159</v>
+        <v>11.44289385881995</v>
       </c>
       <c r="N17" t="n">
-        <v>9.983480110646159</v>
+        <v>11.44289385881995</v>
       </c>
       <c r="O17" t="n">
-        <v>9.983480110646159</v>
+        <v>12.54775672752247</v>
       </c>
       <c r="P17" t="n">
-        <v>4.358571394112969</v>
+        <v>6.922848010989046</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.358571394112969</v>
+        <v>8.819880415615833</v>
       </c>
       <c r="R17" t="n">
-        <v>4.358571394112969</v>
+        <v>12.75922891532763</v>
       </c>
       <c r="S17" t="n">
-        <v>20.37759796117648</v>
+        <v>28.77825548239114</v>
       </c>
       <c r="T17" t="n">
-        <v>20.37759796117648</v>
+        <v>28.77825548239114</v>
       </c>
       <c r="U17" t="n">
-        <v>29.29321307893903</v>
+        <v>28.77825548239114</v>
       </c>
       <c r="V17" t="n">
-        <v>45.31223964600253</v>
+        <v>44.79728204945464</v>
       </c>
       <c r="W17" t="n">
-        <v>61.33126621306604</v>
+        <v>60.81630861651815</v>
       </c>
       <c r="X17" t="n">
-        <v>61.33126621306604</v>
+        <v>61.33126621306656</v>
       </c>
       <c r="Y17" t="n">
         <v>44.9869885199087</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.99981660958458</v>
+        <v>39.52325421505658</v>
       </c>
       <c r="C20" t="n">
-        <v>51.39376088546895</v>
+        <v>57.91719849094117</v>
       </c>
       <c r="D20" t="n">
-        <v>69.78770516135332</v>
+        <v>67.8261099892221</v>
       </c>
       <c r="E20" t="n">
-        <v>59.75022206153393</v>
+        <v>57.788626889403</v>
       </c>
       <c r="F20" t="n">
-        <v>40.98280621020819</v>
+        <v>39.02121103807701</v>
       </c>
       <c r="G20" t="n">
-        <v>22.21539035888244</v>
+        <v>20.25379518675101</v>
       </c>
       <c r="H20" t="n">
-        <v>3.447974507556694</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="I20" t="n">
-        <v>11.46247739672445</v>
+        <v>9.500882224592962</v>
       </c>
       <c r="J20" t="n">
-        <v>11.46247739672445</v>
+        <v>27.89482650047735</v>
       </c>
       <c r="K20" t="n">
-        <v>11.46247739672445</v>
+        <v>37.3962315341528</v>
       </c>
       <c r="L20" t="n">
-        <v>1.486379335424999</v>
+        <v>27.42013347285333</v>
       </c>
       <c r="M20" t="n">
-        <v>3.880642679383982</v>
+        <v>29.81439681681232</v>
       </c>
       <c r="N20" t="n">
-        <v>6.795307063669327</v>
+        <v>34.2614303686091</v>
       </c>
       <c r="O20" t="n">
-        <v>6.795307063669327</v>
+        <v>35.6759862039337</v>
       </c>
       <c r="P20" t="n">
-        <v>1.486379335424999</v>
+        <v>30.36705847568934</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.486379335424999</v>
+        <v>30.36705847568934</v>
       </c>
       <c r="R20" t="n">
-        <v>1.486379335424999</v>
+        <v>34.61609994202315</v>
       </c>
       <c r="S20" t="n">
-        <v>19.88032361130966</v>
+        <v>53.01004421790776</v>
       </c>
       <c r="T20" t="n">
-        <v>19.88032361130966</v>
+        <v>53.01004421790776</v>
       </c>
       <c r="U20" t="n">
-        <v>38.27426788719403</v>
+        <v>55.10037193219587</v>
       </c>
       <c r="V20" t="n">
-        <v>56.66821216307839</v>
+        <v>73.49431620808048</v>
       </c>
       <c r="W20" t="n">
-        <v>67.7955291657788</v>
+        <v>73.49431620808048</v>
       </c>
       <c r="X20" t="n">
-        <v>67.7955291657788</v>
+        <v>74.31896677125093</v>
       </c>
       <c r="Y20" t="n">
-        <v>49.02811331445305</v>
+        <v>55.55155091992494</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="C21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="D21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="E21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="F21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="G21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="H21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="I21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="J21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="K21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="L21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="M21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="N21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="O21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="P21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="R21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="S21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="T21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="U21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="V21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="W21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="X21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="C22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="D22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="E22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="F22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="G22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="H22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="I22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="J22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="K22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="L22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="M22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="N22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="O22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="P22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="R22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="S22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="T22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="U22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="V22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="W22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="X22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.486379335424999</v>
+        <v>1.486379335425019</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.231256670706</v>
+        <v>78.78241580486643</v>
       </c>
       <c r="C23" t="n">
-        <v>70.35833544866706</v>
+        <v>99.90949458282751</v>
       </c>
       <c r="D23" t="n">
-        <v>101.2476557025345</v>
+        <v>101.2476557025347</v>
       </c>
       <c r="E23" t="n">
-        <v>92.73204932891014</v>
+        <v>92.73204932891042</v>
       </c>
       <c r="F23" t="n">
-        <v>61.21555075338988</v>
+        <v>61.21555075338979</v>
       </c>
       <c r="G23" t="n">
-        <v>29.69905217786962</v>
+        <v>29.69905217786959</v>
       </c>
       <c r="H23" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I23" t="n">
-        <v>12.00220095569288</v>
+        <v>12.00220095569289</v>
       </c>
       <c r="J23" t="n">
-        <v>19.18875116693882</v>
+        <v>42.89152120956024</v>
       </c>
       <c r="K23" t="n">
-        <v>19.18875116693882</v>
+        <v>53.88451762257941</v>
       </c>
       <c r="L23" t="n">
-        <v>10.73452983183441</v>
+        <v>45.43029628747494</v>
       </c>
       <c r="M23" t="n">
-        <v>10.73452983183441</v>
+        <v>49.31615101077756</v>
       </c>
       <c r="N23" t="n">
-        <v>10.73452983183441</v>
+        <v>55.25477594191805</v>
       </c>
       <c r="O23" t="n">
-        <v>10.73452983183441</v>
+        <v>58.16092315658631</v>
       </c>
       <c r="P23" t="n">
-        <v>6.947478829785133</v>
+        <v>54.37387215453725</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.947478829785133</v>
+        <v>54.37387215453725</v>
       </c>
       <c r="R23" t="n">
-        <v>6.947478829785133</v>
+        <v>54.37387215453725</v>
       </c>
       <c r="S23" t="n">
-        <v>37.83679908365126</v>
+        <v>54.37387215453725</v>
       </c>
       <c r="T23" t="n">
-        <v>37.83679908365126</v>
+        <v>85.26319240840461</v>
       </c>
       <c r="U23" t="n">
-        <v>68.72611933751867</v>
+        <v>91.59977216267846</v>
       </c>
       <c r="V23" t="n">
-        <v>68.72611933751867</v>
+        <v>122.4890924165458</v>
       </c>
       <c r="W23" t="n">
-        <v>95.25417522489968</v>
+        <v>122.4890924165458</v>
       </c>
       <c r="X23" t="n">
-        <v>95.25417522489968</v>
+        <v>124.80533435906</v>
       </c>
       <c r="Y23" t="n">
-        <v>63.73767664937942</v>
+        <v>93.2888357835398</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="C24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="D24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="E24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="F24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="G24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="H24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="J24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="K24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="L24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="M24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="N24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="O24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="P24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="R24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="S24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="T24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="U24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="V24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="W24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="X24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="C25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="D25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="E25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="F25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="G25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="H25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="J25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="K25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="L25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="M25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="N25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="O25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="P25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="R25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="S25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="T25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="U25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="V25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="W25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="X25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.2312566707061</v>
+        <v>49.23125667070555</v>
       </c>
       <c r="C26" t="n">
-        <v>70.35833544866706</v>
+        <v>70.35833544866672</v>
       </c>
       <c r="D26" t="n">
-        <v>101.2476557025345</v>
+        <v>101.247655702534</v>
       </c>
       <c r="E26" t="n">
-        <v>92.73204932891014</v>
+        <v>92.7320493289098</v>
       </c>
       <c r="F26" t="n">
-        <v>61.21555075338988</v>
+        <v>61.21555075338965</v>
       </c>
       <c r="G26" t="n">
-        <v>29.69905217786962</v>
+        <v>29.6990521778695</v>
       </c>
       <c r="H26" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="I26" t="n">
-        <v>12.00220095569283</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="J26" t="n">
-        <v>42.89152120956017</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="K26" t="n">
-        <v>42.89152120956017</v>
+        <v>13.48910310020042</v>
       </c>
       <c r="L26" t="n">
-        <v>34.43729987445577</v>
+        <v>5.034881765096003</v>
       </c>
       <c r="M26" t="n">
-        <v>38.32315459775854</v>
+        <v>8.920736488398717</v>
       </c>
       <c r="N26" t="n">
-        <v>38.32315459775854</v>
+        <v>14.85936141953919</v>
       </c>
       <c r="O26" t="n">
-        <v>38.32315459775854</v>
+        <v>14.85936141953919</v>
       </c>
       <c r="P26" t="n">
-        <v>34.53610359570926</v>
+        <v>11.07231041748994</v>
       </c>
       <c r="Q26" t="n">
-        <v>34.53610359570926</v>
+        <v>14.77062716808255</v>
       </c>
       <c r="R26" t="n">
-        <v>40.27673644138682</v>
+        <v>20.51126001376001</v>
       </c>
       <c r="S26" t="n">
-        <v>68.72611933751875</v>
+        <v>51.4005802676273</v>
       </c>
       <c r="T26" t="n">
-        <v>68.72611933751875</v>
+        <v>51.4005802676273</v>
       </c>
       <c r="U26" t="n">
-        <v>68.72611933751875</v>
+        <v>51.4005802676273</v>
       </c>
       <c r="V26" t="n">
-        <v>68.72611933751875</v>
+        <v>68.72611933751787</v>
       </c>
       <c r="W26" t="n">
-        <v>95.25417522489977</v>
+        <v>95.254175224899</v>
       </c>
       <c r="X26" t="n">
-        <v>95.25417522489977</v>
+        <v>95.254175224899</v>
       </c>
       <c r="Y26" t="n">
-        <v>63.73767664937952</v>
+        <v>63.73767664937886</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="C27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="D27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="E27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="F27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="G27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="H27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="I27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="J27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="K27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="L27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="M27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="N27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="O27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="P27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="R27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="S27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="T27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="U27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="V27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="W27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="X27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="C28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="D28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="E28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="F28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="G28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="H28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="I28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="J28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="K28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="L28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="M28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="N28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="O28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="P28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="R28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="S28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="T28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="U28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="V28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="W28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="X28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.496106687181205</v>
+        <v>2.496106687181196</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.78241580486616</v>
+        <v>78.78241580486633</v>
       </c>
       <c r="C29" t="n">
-        <v>99.90949458282722</v>
+        <v>99.90949458282745</v>
       </c>
       <c r="D29" t="n">
-        <v>101.2476557025345</v>
+        <v>101.2476557025346</v>
       </c>
       <c r="E29" t="n">
-        <v>92.73204932891014</v>
+        <v>92.73204932890997</v>
       </c>
       <c r="F29" t="n">
-        <v>61.21555075338988</v>
+        <v>61.21555075338976</v>
       </c>
       <c r="G29" t="n">
-        <v>29.69905217786962</v>
+        <v>29.69905217786956</v>
       </c>
       <c r="H29" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I29" t="n">
-        <v>12.00220095569288</v>
+        <v>12.00220095569295</v>
       </c>
       <c r="J29" t="n">
-        <v>42.89152120956028</v>
+        <v>42.8915212095603</v>
       </c>
       <c r="K29" t="n">
-        <v>53.88451762257953</v>
+        <v>53.88451762257944</v>
       </c>
       <c r="L29" t="n">
-        <v>45.43029628747501</v>
+        <v>45.43029628747487</v>
       </c>
       <c r="M29" t="n">
-        <v>45.43029628747501</v>
+        <v>45.43029628747487</v>
       </c>
       <c r="N29" t="n">
-        <v>45.43029628747501</v>
+        <v>45.43029628747487</v>
       </c>
       <c r="O29" t="n">
-        <v>45.43029628747501</v>
+        <v>45.43029628747487</v>
       </c>
       <c r="P29" t="n">
-        <v>41.64324528542577</v>
+        <v>41.64324528542555</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.64324528542577</v>
+        <v>45.3415620360181</v>
       </c>
       <c r="R29" t="n">
-        <v>47.38387813110334</v>
+        <v>45.3415620360181</v>
       </c>
       <c r="S29" t="n">
-        <v>47.38387813110334</v>
+        <v>45.3415620360181</v>
       </c>
       <c r="T29" t="n">
-        <v>47.38387813110334</v>
+        <v>76.23088228988546</v>
       </c>
       <c r="U29" t="n">
-        <v>78.27319838497061</v>
+        <v>91.59977216267845</v>
       </c>
       <c r="V29" t="n">
-        <v>95.96103652916509</v>
+        <v>122.4890924165458</v>
       </c>
       <c r="W29" t="n">
-        <v>122.4890924165461</v>
+        <v>122.4890924165458</v>
       </c>
       <c r="X29" t="n">
-        <v>124.8053343590602</v>
+        <v>124.80533435906</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.28883578353955</v>
+        <v>93.2888357835397</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="C30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="D30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="E30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="F30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="G30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="H30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="J30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="K30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="L30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="M30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="N30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="O30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="P30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="R30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="S30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="T30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="U30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="V30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="W30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="X30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="C31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="D31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="E31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="F31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="G31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="H31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="J31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="K31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="L31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="M31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="N31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="O31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="P31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="R31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="S31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="T31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="U31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="V31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="W31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="X31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.79666623510968</v>
+        <v>77.79666623511014</v>
       </c>
       <c r="C32" t="n">
-        <v>100.0496355582042</v>
+        <v>100.0496355582047</v>
       </c>
       <c r="D32" t="n">
-        <v>137.9713653731334</v>
+        <v>137.9713653731341</v>
       </c>
       <c r="E32" t="n">
-        <v>130.6045096832489</v>
+        <v>130.6045096832498</v>
       </c>
       <c r="F32" t="n">
-        <v>80.32059525640186</v>
+        <v>80.32059525640224</v>
       </c>
       <c r="G32" t="n">
-        <v>30.03668082955483</v>
+        <v>30.0366808295547</v>
       </c>
       <c r="H32" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="I32" t="n">
-        <v>14.61447083625119</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="J32" t="n">
-        <v>14.61447083625119</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="K32" t="n">
-        <v>26.73335779440386</v>
+        <v>13.92625699228017</v>
       </c>
       <c r="L32" t="n">
-        <v>19.42788714303936</v>
+        <v>6.620786340915671</v>
       </c>
       <c r="M32" t="n">
-        <v>19.42788714303936</v>
+        <v>6.620786340915671</v>
       </c>
       <c r="N32" t="n">
-        <v>19.42788714303936</v>
+        <v>6.620786340915671</v>
       </c>
       <c r="O32" t="n">
-        <v>19.42788714303936</v>
+        <v>6.620786340915671</v>
       </c>
       <c r="P32" t="n">
-        <v>16.78958682472996</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="Q32" t="n">
-        <v>16.78958682472996</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="R32" t="n">
-        <v>23.65611021554093</v>
+        <v>10.84900941341743</v>
       </c>
       <c r="S32" t="n">
-        <v>72.93937474529152</v>
+        <v>35.88863377599046</v>
       </c>
       <c r="T32" t="n">
-        <v>85.17189830574409</v>
+        <v>35.88863377599046</v>
       </c>
       <c r="U32" t="n">
-        <v>85.17189830574409</v>
+        <v>85.17189830574404</v>
       </c>
       <c r="V32" t="n">
-        <v>121.5220834218236</v>
+        <v>121.5220834218237</v>
       </c>
       <c r="W32" t="n">
-        <v>121.5220834218236</v>
+        <v>121.5220834218237</v>
       </c>
       <c r="X32" t="n">
-        <v>121.5220834218236</v>
+        <v>121.5220834218237</v>
       </c>
       <c r="Y32" t="n">
-        <v>91.15433553004323</v>
+        <v>91.15433553004351</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="C33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="D33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="E33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="F33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="G33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="H33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="I33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="J33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="K33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="L33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="M33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="N33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="O33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="P33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="R33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="S33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="T33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="U33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="V33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="W33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="X33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="C34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="D34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="E34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="F34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="G34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="H34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="I34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="J34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="K34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="L34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="M34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="N34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="O34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="P34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="R34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="S34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="T34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="U34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="V34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="W34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="X34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.982486022606285</v>
+        <v>3.982486022606325</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>63.42456956843095</v>
+        <v>83.69094793299386</v>
       </c>
       <c r="C35" t="n">
-        <v>85.36784592490352</v>
+        <v>85.36784592490443</v>
       </c>
       <c r="D35" t="n">
-        <v>122.9798827732108</v>
+        <v>122.9798827732118</v>
       </c>
       <c r="E35" t="n">
-        <v>115.2970460950374</v>
+        <v>115.2970460950385</v>
       </c>
       <c r="F35" t="n">
-        <v>72.52729316131291</v>
+        <v>72.52729316131342</v>
       </c>
       <c r="G35" t="n">
-        <v>29.7575402275884</v>
+        <v>29.75754022758839</v>
       </c>
       <c r="H35" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="I35" t="n">
-        <v>13.70965627937412</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="J35" t="n">
-        <v>55.62829112971752</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="K35" t="n">
-        <v>67.43748512124824</v>
+        <v>15.19655842388168</v>
       </c>
       <c r="L35" t="n">
-        <v>59.81603348159481</v>
+        <v>7.575106784228159</v>
       </c>
       <c r="M35" t="n">
-        <v>64.51808578340905</v>
+        <v>7.575106784228159</v>
       </c>
       <c r="N35" t="n">
-        <v>71.27290829306114</v>
+        <v>14.32992929388013</v>
       </c>
       <c r="O35" t="n">
-        <v>71.56329836783773</v>
+        <v>18.05227408705996</v>
       </c>
       <c r="P35" t="n">
-        <v>68.60901706123947</v>
+        <v>15.09799278046162</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.60901706123947</v>
+        <v>19.61250710956569</v>
       </c>
       <c r="R35" t="n">
-        <v>68.60901706123947</v>
+        <v>19.61250710956569</v>
       </c>
       <c r="S35" t="n">
-        <v>68.60901706123947</v>
+        <v>19.61250710956569</v>
       </c>
       <c r="T35" t="n">
-        <v>68.60901706123947</v>
+        <v>61.53114195990959</v>
       </c>
       <c r="U35" t="n">
-        <v>68.60901706123947</v>
+        <v>61.53114195990959</v>
       </c>
       <c r="V35" t="n">
-        <v>104.649509210697</v>
+        <v>97.57163410936721</v>
       </c>
       <c r="W35" t="n">
-        <v>104.649509210697</v>
+        <v>124.9158875752598</v>
       </c>
       <c r="X35" t="n">
-        <v>107.7819487317227</v>
+        <v>128.0483270962854</v>
       </c>
       <c r="Y35" t="n">
-        <v>77.09821985165337</v>
+        <v>97.36459821621622</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="C36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="D36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="E36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="F36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="G36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="H36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="I36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="J36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="K36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="L36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="M36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="N36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="O36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="P36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="R36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="S36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="T36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="U36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="V36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="W36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="X36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="C37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="D37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="E37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="F37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="G37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="H37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="I37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="J37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="K37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="L37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="M37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="N37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="O37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="P37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="R37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="S37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="T37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="U37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="V37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="W37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="X37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.387364432350982</v>
+        <v>3.387364432351022</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>62.93081878014351</v>
+        <v>62.93081878014436</v>
       </c>
       <c r="C38" t="n">
-        <v>84.6982534150369</v>
+        <v>84.69825341503775</v>
       </c>
       <c r="D38" t="n">
-        <v>122.134448541765</v>
+        <v>122.1344485417659</v>
       </c>
       <c r="E38" t="n">
-        <v>114.2721998427987</v>
+        <v>114.2721998427996</v>
       </c>
       <c r="F38" t="n">
-        <v>72.08163999922027</v>
+        <v>72.0816399992207</v>
       </c>
       <c r="G38" t="n">
-        <v>29.89108015564179</v>
+        <v>29.89108015564182</v>
       </c>
       <c r="H38" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="I38" t="n">
-        <v>13.48794246505539</v>
+        <v>13.48794246505545</v>
       </c>
       <c r="J38" t="n">
-        <v>54.83891016774668</v>
+        <v>13.48794246505545</v>
       </c>
       <c r="K38" t="n">
-        <v>66.47226243769822</v>
+        <v>25.1212947350069</v>
       </c>
       <c r="L38" t="n">
-        <v>58.67139877725182</v>
+        <v>17.32043107456039</v>
       </c>
       <c r="M38" t="n">
-        <v>63.19760935748693</v>
+        <v>21.8466416547953</v>
       </c>
       <c r="N38" t="n">
-        <v>69.77659014555999</v>
+        <v>21.8466416547953</v>
       </c>
       <c r="O38" t="n">
-        <v>69.77659014555999</v>
+        <v>25.39314472639611</v>
       </c>
       <c r="P38" t="n">
-        <v>66.64289681816879</v>
+        <v>22.25945139900474</v>
       </c>
       <c r="Q38" t="n">
-        <v>70.98156942569378</v>
+        <v>26.59812400652959</v>
       </c>
       <c r="R38" t="n">
-        <v>70.98156942569378</v>
+        <v>26.59812400652959</v>
       </c>
       <c r="S38" t="n">
-        <v>70.98156942569378</v>
+        <v>36.17104473856884</v>
       </c>
       <c r="T38" t="n">
-        <v>70.98156942569378</v>
+        <v>36.17104473856884</v>
       </c>
       <c r="U38" t="n">
-        <v>70.98156942569378</v>
+        <v>77.52201244126049</v>
       </c>
       <c r="V38" t="n">
-        <v>106.8462198535722</v>
+        <v>77.52201244126049</v>
       </c>
       <c r="W38" t="n">
-        <v>107.6470219850213</v>
+        <v>104.6904241855738</v>
       </c>
       <c r="X38" t="n">
-        <v>107.6470219850213</v>
+        <v>107.6470219850203</v>
       </c>
       <c r="Y38" t="n">
-        <v>76.78388108415891</v>
+        <v>76.78388108415976</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="C39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="D39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="E39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="F39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="G39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="H39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="I39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="J39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="K39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="L39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="M39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="N39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="O39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="P39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="R39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="S39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="T39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="U39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="V39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="W39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="X39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="C40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="D40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="E40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="F40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="G40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="H40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="I40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="J40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="K40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="L40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="M40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="N40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="O40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="P40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="R40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="S40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="T40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="U40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="V40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="W40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="X40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.341492339611414</v>
+        <v>3.341492339611447</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>84.71675758971219</v>
+        <v>52.68473008657051</v>
       </c>
       <c r="C41" t="n">
-        <v>105.9892047211774</v>
+        <v>73.95717721803575</v>
       </c>
       <c r="D41" t="n">
-        <v>105.9892047211774</v>
+        <v>105.9892047211778</v>
       </c>
       <c r="E41" t="n">
-        <v>97.62191826746351</v>
+        <v>97.62191826746388</v>
       </c>
       <c r="F41" t="n">
-        <v>63.68228153377484</v>
+        <v>63.68228153377503</v>
       </c>
       <c r="G41" t="n">
-        <v>29.74264480008617</v>
+        <v>29.74264480008618</v>
       </c>
       <c r="H41" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="I41" t="n">
-        <v>12.339481851324</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="J41" t="n">
-        <v>45.60371981401241</v>
+        <v>35.95225719199661</v>
       </c>
       <c r="K41" t="n">
-        <v>45.60371981401241</v>
+        <v>35.95225719199661</v>
       </c>
       <c r="L41" t="n">
-        <v>37.29781839881842</v>
+        <v>27.64635577680245</v>
       </c>
       <c r="M41" t="n">
-        <v>41.32904147562533</v>
+        <v>31.67757885360927</v>
       </c>
       <c r="N41" t="n">
-        <v>47.41303476027008</v>
+        <v>31.67757885360927</v>
       </c>
       <c r="O41" t="n">
-        <v>47.41303476027008</v>
+        <v>31.67757885360927</v>
       </c>
       <c r="P41" t="n">
-        <v>43.77430367813122</v>
+        <v>28.0388477714703</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.77430367813122</v>
+        <v>31.88253287556702</v>
       </c>
       <c r="R41" t="n">
-        <v>49.66030487731297</v>
+        <v>31.88253287556702</v>
       </c>
       <c r="S41" t="n">
-        <v>68.0437638044969</v>
+        <v>31.88253287556702</v>
       </c>
       <c r="T41" t="n">
-        <v>101.3080017671852</v>
+        <v>65.14677083825546</v>
       </c>
       <c r="U41" t="n">
-        <v>101.3080017671852</v>
+        <v>65.14677083825546</v>
       </c>
       <c r="V41" t="n">
-        <v>101.3080017671852</v>
+        <v>98.41100880094334</v>
       </c>
       <c r="W41" t="n">
-        <v>127.9814260080704</v>
+        <v>98.41100880094334</v>
       </c>
       <c r="X41" t="n">
-        <v>130.4430363040887</v>
+        <v>98.41100880094334</v>
       </c>
       <c r="Y41" t="n">
-        <v>99.07485764847519</v>
+        <v>67.04283014533351</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="C42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="D42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="E42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="F42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="G42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="H42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="I42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="J42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="K42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="L42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="M42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="N42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="O42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="P42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="R42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="S42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="T42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="U42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="V42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="W42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="X42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="C43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="D43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="E43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="F43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="G43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="H43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="I43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="J43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="K43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="L43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="M43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="N43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="O43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="P43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="R43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="S43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="T43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="U43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="V43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="W43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="X43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.688019229308143</v>
+        <v>2.688019229308158</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.78241580486667</v>
+        <v>70.35833544866701</v>
       </c>
       <c r="C44" t="n">
-        <v>99.9094945828278</v>
+        <v>70.35833544866701</v>
       </c>
       <c r="D44" t="n">
-        <v>101.2476557025347</v>
+        <v>101.2476557025345</v>
       </c>
       <c r="E44" t="n">
-        <v>92.73204932891026</v>
+        <v>92.73204932891014</v>
       </c>
       <c r="F44" t="n">
-        <v>61.21555075338995</v>
+        <v>61.21555075338988</v>
       </c>
       <c r="G44" t="n">
-        <v>29.69905217786963</v>
+        <v>29.69905217786962</v>
       </c>
       <c r="H44" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="I44" t="n">
-        <v>12.00220095569284</v>
+        <v>10.95032802228559</v>
       </c>
       <c r="J44" t="n">
-        <v>42.89152120956034</v>
+        <v>10.95032802228559</v>
       </c>
       <c r="K44" t="n">
-        <v>42.89152120956034</v>
+        <v>10.95032802228559</v>
       </c>
       <c r="L44" t="n">
-        <v>34.43729987445607</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="M44" t="n">
-        <v>34.43729987445607</v>
+        <v>6.381961410483793</v>
       </c>
       <c r="N44" t="n">
-        <v>34.43729987445607</v>
+        <v>6.381961410483793</v>
       </c>
       <c r="O44" t="n">
-        <v>34.43729987445607</v>
+        <v>6.381961410483793</v>
       </c>
       <c r="P44" t="n">
-        <v>30.65024887240694</v>
+        <v>2.594910408434544</v>
       </c>
       <c r="Q44" t="n">
-        <v>30.65024887240694</v>
+        <v>2.594910408434544</v>
       </c>
       <c r="R44" t="n">
-        <v>34.18239602143054</v>
+        <v>8.335543254112281</v>
       </c>
       <c r="S44" t="n">
-        <v>34.18239602143054</v>
+        <v>23.71329324125843</v>
       </c>
       <c r="T44" t="n">
-        <v>34.18239602143054</v>
+        <v>54.60261349512584</v>
       </c>
       <c r="U44" t="n">
-        <v>65.07171627529797</v>
+        <v>85.49193374899325</v>
       </c>
       <c r="V44" t="n">
-        <v>95.96103652916543</v>
+        <v>116.3812540028607</v>
       </c>
       <c r="W44" t="n">
-        <v>122.4890924165464</v>
+        <v>116.3812540028607</v>
       </c>
       <c r="X44" t="n">
-        <v>124.8053343590605</v>
+        <v>116.3812540028607</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.28883578354012</v>
+        <v>84.86475542734041</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="C45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="D45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="E45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="F45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="G45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="H45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="I45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="J45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="K45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="L45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="M45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="N45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="O45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="P45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="R45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="S45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="T45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="U45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="V45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="W45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="X45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="C46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="D46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="E46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="F46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="G46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="H46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="I46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="J46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="K46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="L46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="M46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="N46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="O46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="P46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="R46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="S46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="T46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="U46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="V46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="W46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="X46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.496106687181209</v>
+        <v>2.496106687181205</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.61217528685791</v>
+        <v>10.61217528685779</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.681269817859345</v>
+        <v>4.681269817859231</v>
       </c>
       <c r="F11" t="n">
-        <v>51.40614931324027</v>
+        <v>48.87314409221705</v>
       </c>
       <c r="G11" t="n">
-        <v>78.7485048253273</v>
+        <v>81.28151004635019</v>
       </c>
       <c r="H11" t="n">
-        <v>23.18173554375278</v>
+        <v>23.18173554375267</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4.62049862972458</v>
+        <v>4.620498629724636</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.4521530977363</v>
+        <v>27.45215309773619</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.891937406902018</v>
+        <v>9.8919374069018</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.961031937903458</v>
+        <v>3.96103193790324</v>
       </c>
       <c r="F14" t="n">
-        <v>48.15290621226127</v>
+        <v>48.15290621226106</v>
       </c>
       <c r="G14" t="n">
-        <v>78.02826694537141</v>
+        <v>80.50560623000284</v>
       </c>
       <c r="H14" t="n">
-        <v>23.41657825145925</v>
+        <v>22.46149766379667</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.900260749768693</v>
+        <v>3.900260749768645</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.20336433967943</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.05080957507036</v>
+        <v>26.73191521778019</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.54924085036652</v>
+        <v>35.54924085036616</v>
       </c>
       <c r="G20" t="n">
-        <v>65.42460158347666</v>
+        <v>65.4246015834763</v>
       </c>
       <c r="H20" t="n">
-        <v>9.857832301902135</v>
+        <v>9.85783230190178</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.12824985588566</v>
+        <v>14.1282498558853</v>
       </c>
     </row>
     <row r="21">
@@ -24926,10 +24926,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.703986124764882</v>
+        <v>1.703986124764199</v>
       </c>
       <c r="G32" t="n">
-        <v>31.57934685787502</v>
+        <v>31.57934685787434</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.455827181362167</v>
+        <v>9.455827181361599</v>
       </c>
       <c r="G35" t="n">
-        <v>39.3311879144723</v>
+        <v>39.33118791447173</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>10.20684624119178</v>
+        <v>10.20684624119137</v>
       </c>
       <c r="G38" t="n">
-        <v>40.08220697430193</v>
+        <v>40.08220697430151</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>18.87524749718284</v>
+        <v>18.87524749718266</v>
       </c>
       <c r="G41" t="n">
-        <v>48.75060823029298</v>
+        <v>48.7506082302928</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1194260.825635592</v>
+        <v>1194260.825635593</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>548345.1812796401</v>
+        <v>548345.1812796403</v>
       </c>
       <c r="C2" t="n">
-        <v>548345.1812796401</v>
+        <v>548345.1812796403</v>
       </c>
       <c r="D2" t="n">
-        <v>548345.1812796402</v>
+        <v>548345.1812796403</v>
       </c>
       <c r="E2" t="n">
-        <v>540718.6857442703</v>
+        <v>540718.6857442704</v>
       </c>
       <c r="F2" t="n">
-        <v>540941.8468996569</v>
+        <v>540941.8468996572</v>
       </c>
       <c r="G2" t="n">
-        <v>543559.817305775</v>
+        <v>543559.8173057752</v>
       </c>
       <c r="H2" t="n">
-        <v>544034.6951052536</v>
+        <v>544034.6951052537</v>
       </c>
       <c r="I2" t="n">
         <v>546321.8753395029</v>
@@ -26338,22 +26338,22 @@
         <v>546321.8753395031</v>
       </c>
       <c r="K2" t="n">
-        <v>546321.8753395031</v>
+        <v>546321.8753395028</v>
       </c>
       <c r="L2" t="n">
-        <v>548048.296285895</v>
+        <v>548048.2962858953</v>
       </c>
       <c r="M2" t="n">
-        <v>547369.5450829797</v>
+        <v>547369.54508298</v>
       </c>
       <c r="N2" t="n">
-        <v>547303.7858541007</v>
+        <v>547303.7858541012</v>
       </c>
       <c r="O2" t="n">
         <v>546544.7806401264</v>
       </c>
       <c r="P2" t="n">
-        <v>546321.8753395027</v>
+        <v>546321.8753395028</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313501.2384478713</v>
+        <v>313501.2384478712</v>
       </c>
       <c r="F3" t="n">
-        <v>281.7637171227503</v>
+        <v>281.7637171227803</v>
       </c>
       <c r="G3" t="n">
-        <v>3617.658540457841</v>
+        <v>3617.658540457724</v>
       </c>
       <c r="H3" t="n">
-        <v>897.5035812088912</v>
+        <v>897.5035812090459</v>
       </c>
       <c r="I3" t="n">
-        <v>4561.672705975995</v>
+        <v>4561.67270597587</v>
       </c>
       <c r="J3" t="n">
-        <v>272094.750640456</v>
+        <v>272094.7506404562</v>
       </c>
       <c r="K3" t="n">
-        <v>117.4693765690336</v>
+        <v>117.4693765689426</v>
       </c>
       <c r="L3" t="n">
-        <v>6990.994768787556</v>
+        <v>6990.9947687877</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1063.232046678468</v>
+        <v>1063.232046678377</v>
       </c>
       <c r="O3" t="n">
-        <v>271694.7607386959</v>
+        <v>271694.760738696</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>544187.9465818121</v>
+        <v>544187.9465818122</v>
       </c>
       <c r="F4" t="n">
-        <v>544423.3236522868</v>
+        <v>544423.3236522869</v>
       </c>
       <c r="G4" t="n">
         <v>547186.3014893166</v>
       </c>
       <c r="H4" t="n">
-        <v>547687.8238684</v>
+        <v>547687.8238684002</v>
       </c>
       <c r="I4" t="n">
         <v>550103.3338664112</v>
@@ -26442,22 +26442,22 @@
         <v>550103.3338664111</v>
       </c>
       <c r="K4" t="n">
-        <v>550103.3338664111</v>
+        <v>550103.3338664112</v>
       </c>
       <c r="L4" t="n">
         <v>551926.6213338089</v>
       </c>
       <c r="M4" t="n">
-        <v>551208.6645716453</v>
+        <v>551208.6645716454</v>
       </c>
       <c r="N4" t="n">
-        <v>551140.3376974371</v>
+        <v>551140.3376974373</v>
       </c>
       <c r="O4" t="n">
-        <v>550338.7460014948</v>
+        <v>550338.7460014947</v>
       </c>
       <c r="P4" t="n">
-        <v>550103.333866411</v>
+        <v>550103.3338664111</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30108.98754222762</v>
+        <v>30108.98754222763</v>
       </c>
       <c r="F5" t="n">
-        <v>30156.19474898317</v>
+        <v>30156.19474898318</v>
       </c>
       <c r="G5" t="n">
-        <v>30797.72921229846</v>
+        <v>30797.72921229845</v>
       </c>
       <c r="H5" t="n">
-        <v>30969.88130796235</v>
+        <v>30969.88130796237</v>
       </c>
       <c r="I5" t="n">
-        <v>31863.93732324661</v>
+        <v>31863.9373232466</v>
       </c>
       <c r="J5" t="n">
-        <v>31863.93732324661</v>
+        <v>31863.9373232466</v>
       </c>
       <c r="K5" t="n">
-        <v>31863.93732324661</v>
+        <v>31863.9373232466</v>
       </c>
       <c r="L5" t="n">
-        <v>33089.19419618868</v>
+        <v>33089.19419618873</v>
       </c>
       <c r="M5" t="n">
-        <v>32610.60322394724</v>
+        <v>32610.60322394727</v>
       </c>
       <c r="N5" t="n">
-        <v>32560.80827418089</v>
+        <v>32560.8082741809</v>
       </c>
       <c r="O5" t="n">
         <v>32022.13527153656</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54332.19239469608</v>
+        <v>-54337.4663007151</v>
       </c>
       <c r="C6" t="n">
-        <v>-54332.19239469608</v>
+        <v>-54337.4663007151</v>
       </c>
       <c r="D6" t="n">
-        <v>-54332.19239469597</v>
+        <v>-54337.4663007151</v>
       </c>
       <c r="E6" t="n">
-        <v>-347079.4868276407</v>
+        <v>-347119.426622457</v>
       </c>
       <c r="F6" t="n">
-        <v>-33919.43521873575</v>
+        <v>-33958.36064466391</v>
       </c>
       <c r="G6" t="n">
-        <v>-38041.87193629792</v>
+        <v>-38068.89749674346</v>
       </c>
       <c r="H6" t="n">
-        <v>-35520.51365231758</v>
+        <v>-35545.38067731156</v>
       </c>
       <c r="I6" t="n">
-        <v>-40207.06855613086</v>
+        <v>-40221.53930733242</v>
       </c>
       <c r="J6" t="n">
-        <v>-307740.1464906107</v>
+        <v>-307754.6172418125</v>
       </c>
       <c r="K6" t="n">
-        <v>-35762.86522672371</v>
+        <v>-35777.33597792563</v>
       </c>
       <c r="L6" t="n">
-        <v>-43958.51401289003</v>
+        <v>-43965.13739615362</v>
       </c>
       <c r="M6" t="n">
-        <v>-36449.72271261284</v>
+        <v>-36459.43132861683</v>
       </c>
       <c r="N6" t="n">
-        <v>-37460.59216419575</v>
+        <v>-37470.5996857853</v>
       </c>
       <c r="O6" t="n">
-        <v>-307510.8613716008</v>
+        <v>-307524.3189168907</v>
       </c>
       <c r="P6" t="n">
-        <v>-35645.39585015492</v>
+        <v>-35659.8666013566</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="F2" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="G2" t="n">
         <v>341.9887985493934</v>
       </c>
       <c r="H2" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="I2" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="J2" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="K2" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="L2" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="M2" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="N2" t="n">
         <v>344.455101784644</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>48.7742267955491</v>
+      </c>
+      <c r="F3" t="n">
+        <v>48.7742267955491</v>
+      </c>
+      <c r="G3" t="n">
+        <v>48.7742267955491</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48.7742267955491</v>
+      </c>
+      <c r="I3" t="n">
+        <v>48.7742267955491</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48.7742267955491</v>
+      </c>
+      <c r="K3" t="n">
+        <v>48.7742267955491</v>
+      </c>
+      <c r="L3" t="n">
+        <v>48.7742267955491</v>
+      </c>
+      <c r="M3" t="n">
+        <v>48.7742267955491</v>
+      </c>
+      <c r="N3" t="n">
+        <v>48.7742267955491</v>
+      </c>
+      <c r="O3" t="n">
+        <v>48.77422679554911</v>
+      </c>
+      <c r="P3" t="n">
         <v>48.77422679554934</v>
-      </c>
-      <c r="F3" t="n">
-        <v>48.77422679554934</v>
-      </c>
-      <c r="G3" t="n">
-        <v>48.77422679554934</v>
-      </c>
-      <c r="H3" t="n">
-        <v>48.77422679554934</v>
-      </c>
-      <c r="I3" t="n">
-        <v>48.77422679554934</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48.77422679554934</v>
-      </c>
-      <c r="K3" t="n">
-        <v>48.77422679554934</v>
-      </c>
-      <c r="L3" t="n">
-        <v>48.77422679554934</v>
-      </c>
-      <c r="M3" t="n">
-        <v>48.77422679554934</v>
-      </c>
-      <c r="N3" t="n">
-        <v>48.77422679554934</v>
-      </c>
-      <c r="O3" t="n">
-        <v>48.77422679554934</v>
-      </c>
-      <c r="P3" t="n">
-        <v>48.77422679554965</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26799,37 @@
         <v>7.439019878191289</v>
       </c>
       <c r="F4" t="n">
-        <v>8.012421037435884</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="G4" t="n">
         <v>16.18083491622576</v>
       </c>
       <c r="H4" t="n">
-        <v>18.57974169281249</v>
+        <v>18.57974169281273</v>
       </c>
       <c r="I4" t="n">
+        <v>31.201333589765</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31.20133358976494</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31.201333589765</v>
+      </c>
+      <c r="L4" t="n">
+        <v>49.78107528257907</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42.34205540438778</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41.76865424514308</v>
+      </c>
+      <c r="O4" t="n">
+        <v>33.60024036635197</v>
+      </c>
+      <c r="P4" t="n">
         <v>31.20133358976506</v>
-      </c>
-      <c r="J4" t="n">
-        <v>31.20133358976506</v>
-      </c>
-      <c r="K4" t="n">
-        <v>31.20133358976506</v>
-      </c>
-      <c r="L4" t="n">
-        <v>49.78107528257856</v>
-      </c>
-      <c r="M4" t="n">
-        <v>42.34205540438727</v>
-      </c>
-      <c r="N4" t="n">
-        <v>41.76865424514267</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33.60024036635178</v>
-      </c>
-      <c r="P4" t="n">
-        <v>31.20133358976511</v>
       </c>
     </row>
   </sheetData>
@@ -26914,25 +26914,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="F2" t="n">
         <v>0.1468367207112919</v>
       </c>
       <c r="G2" t="n">
-        <v>1.723523528112139</v>
+        <v>1.723523528112025</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3128211784060113</v>
+        <v>0.312821178406125</v>
       </c>
       <c r="I2" t="n">
-        <v>1.50665795893309</v>
+        <v>1.506657958933033</v>
       </c>
       <c r="J2" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1468367207112919</v>
+        <v>0.1468367207111783</v>
       </c>
       <c r="L2" t="n">
         <v>2.860786705014618</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.329040058348085</v>
+        <v>1.329040058347971</v>
       </c>
       <c r="O2" t="n">
-        <v>339.6184509233698</v>
+        <v>339.61845092337</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.7742267955491</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,16 +27021,16 @@
         <v>7.439019878191289</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5734011592445949</v>
+        <v>0.5734011592446997</v>
       </c>
       <c r="G4" t="n">
-        <v>8.168413878789901</v>
+        <v>8.168413878789803</v>
       </c>
       <c r="H4" t="n">
-        <v>2.398906776586704</v>
+        <v>2.398906776586941</v>
       </c>
       <c r="I4" t="n">
-        <v>12.62159189695257</v>
+        <v>12.62159189695227</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.5797416928135</v>
+        <v>18.57974169281407</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="K2" t="n">
         <v>0.1468367207112919</v>
       </c>
       <c r="L2" t="n">
-        <v>1.723523528112139</v>
+        <v>1.723523528112025</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3128211784060113</v>
+        <v>0.312821178406125</v>
       </c>
       <c r="N2" t="n">
-        <v>1.50665795893309</v>
+        <v>1.506657958933033</v>
       </c>
       <c r="O2" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1468367207112919</v>
+        <v>0.1468367207111783</v>
       </c>
     </row>
     <row r="3">
@@ -27267,13 +27267,13 @@
         <v>7.439019878191289</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5734011592445949</v>
+        <v>0.5734011592446997</v>
       </c>
       <c r="O4" t="n">
-        <v>8.168413878789901</v>
+        <v>8.168413878789803</v>
       </c>
       <c r="P4" t="n">
-        <v>2.398906776586704</v>
+        <v>2.398906776586941</v>
       </c>
     </row>
   </sheetData>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="C11" t="n">
         <v>329.9068139508217</v>
@@ -28096,67 +28096,67 @@
         <v>314.0797831509887</v>
       </c>
       <c r="E11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="F11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="G11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="H11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="I11" t="n">
-        <v>334.2061622639935</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="J11" t="n">
-        <v>284.9967995320917</v>
+        <v>277.6370456496187</v>
       </c>
       <c r="K11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="L11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="M11" t="n">
-        <v>339.8831719056187</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="N11" t="n">
-        <v>338.9062268496248</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="O11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="P11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="Q11" t="n">
-        <v>340.0726042012855</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="R11" t="n">
-        <v>340.11843830057</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S11" t="n">
-        <v>288.4595785934291</v>
+        <v>290.5225241440199</v>
       </c>
       <c r="T11" t="n">
-        <v>232.9448502821425</v>
+        <v>232.9448502821426</v>
       </c>
       <c r="U11" t="n">
-        <v>248.0272000066465</v>
+        <v>255.4662198848378</v>
       </c>
       <c r="V11" t="n">
         <v>315.6672020387157</v>
       </c>
       <c r="W11" t="n">
-        <v>324.4512815170642</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
       <c r="Y11" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005701</v>
       </c>
     </row>
     <row r="12">
@@ -28193,25 +28193,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K12" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L12" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M12" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N12" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O12" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P12" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R12" t="n">
         <v>230.2155339931604</v>
@@ -28281,10 +28281,10 @@
         <v>211.9672842814868</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O13" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P13" t="n">
         <v>213.1704276735044</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="C14" t="n">
-        <v>330.4802151100664</v>
+        <v>330.4802151100665</v>
       </c>
       <c r="D14" t="n">
-        <v>314.6531843102333</v>
+        <v>314.6531843102334</v>
       </c>
       <c r="E14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="F14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="G14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="H14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="I14" t="n">
-        <v>340.2652750212813</v>
+        <v>334.2061622639935</v>
       </c>
       <c r="J14" t="n">
-        <v>280.1728175821019</v>
+        <v>285.5702006913365</v>
       </c>
       <c r="K14" t="n">
-        <v>340.2652750212813</v>
+        <v>338.4713962932303</v>
       </c>
       <c r="L14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="M14" t="n">
-        <v>339.8831719056187</v>
+        <v>339.8831719056188</v>
       </c>
       <c r="N14" t="n">
-        <v>337.8096666451764</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="O14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="P14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.0726042012855</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="S14" t="n">
         <v>283.4299048248382</v>
       </c>
       <c r="T14" t="n">
-        <v>230.9389008874697</v>
+        <v>233.5182514413873</v>
       </c>
       <c r="U14" t="n">
-        <v>256.0396210440824</v>
+        <v>253.460270490165</v>
       </c>
       <c r="V14" t="n">
-        <v>316.2406031979603</v>
+        <v>316.2406031979604</v>
       </c>
       <c r="W14" t="n">
-        <v>325.0246826763088</v>
+        <v>325.0246826763089</v>
       </c>
       <c r="X14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.2652750212813</v>
+        <v>340.2652750212814</v>
       </c>
     </row>
     <row r="15">
@@ -28430,25 +28430,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K15" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L15" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M15" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N15" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O15" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P15" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R15" t="n">
         <v>230.2155339931604</v>
@@ -28518,10 +28518,10 @@
         <v>211.9672842814868</v>
       </c>
       <c r="N16" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O16" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P16" t="n">
         <v>213.1704276735044</v>
@@ -28582,43 +28582,43 @@
         <v>341.9887985493934</v>
       </c>
       <c r="I17" t="n">
-        <v>341.9887985493934</v>
+        <v>338.6723032216167</v>
       </c>
       <c r="J17" t="n">
-        <v>277.5577796539004</v>
+        <v>293.7386145701262</v>
       </c>
       <c r="K17" t="n">
-        <v>341.9887985493934</v>
+        <v>332.7042409059052</v>
       </c>
       <c r="L17" t="n">
         <v>341.9887985493934</v>
       </c>
       <c r="M17" t="n">
+        <v>339.8831719056188</v>
+      </c>
+      <c r="N17" t="n">
+        <v>337.8096666451765</v>
+      </c>
+      <c r="O17" t="n">
         <v>341.9887985493934</v>
-      </c>
-      <c r="N17" t="n">
-        <v>337.8096666451764</v>
-      </c>
-      <c r="O17" t="n">
-        <v>340.8727754496937</v>
       </c>
       <c r="P17" t="n">
         <v>341.9887985493934</v>
       </c>
       <c r="Q17" t="n">
-        <v>340.0726042012855</v>
+        <v>341.9887985493934</v>
       </c>
       <c r="R17" t="n">
-        <v>338.0096586506946</v>
+        <v>341.9887985493934</v>
       </c>
       <c r="S17" t="n">
-        <v>299.6107397410639</v>
+        <v>299.610739741064</v>
       </c>
       <c r="T17" t="n">
         <v>225.5058304039513</v>
       </c>
       <c r="U17" t="n">
-        <v>257.032871842771</v>
+        <v>248.0272000066465</v>
       </c>
       <c r="V17" t="n">
         <v>324.4090170767502</v>
@@ -28627,7 +28627,7 @@
         <v>333.1930965550987</v>
       </c>
       <c r="X17" t="n">
-        <v>341.4686393609607</v>
+        <v>341.9887985493934</v>
       </c>
       <c r="Y17" t="n">
         <v>341.9887985493934</v>
@@ -28667,25 +28667,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K18" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L18" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M18" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O18" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P18" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R18" t="n">
         <v>230.2155339931604</v>
@@ -28755,10 +28755,10 @@
         <v>211.9672842814868</v>
       </c>
       <c r="N19" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O19" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P19" t="n">
         <v>213.1704276735044</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="C20" t="n">
-        <v>341.0475357654429</v>
+        <v>341.0475357654432</v>
       </c>
       <c r="D20" t="n">
-        <v>325.2205049656099</v>
+        <v>316.6497647862125</v>
       </c>
       <c r="E20" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="F20" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="G20" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="H20" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="I20" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="J20" t="n">
-        <v>277.5577796539004</v>
+        <v>296.1375213467132</v>
       </c>
       <c r="K20" t="n">
-        <v>332.7042409059051</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="L20" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="M20" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="N20" t="n">
-        <v>340.7537720838485</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="O20" t="n">
-        <v>340.8727754496937</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="P20" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="Q20" t="n">
-        <v>340.0726042012855</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R20" t="n">
-        <v>338.0096586506946</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="S20" t="n">
-        <v>302.0096465176507</v>
+        <v>302.0096465176509</v>
       </c>
       <c r="T20" t="n">
         <v>225.5058304039513</v>
       </c>
       <c r="U20" t="n">
-        <v>266.606941699459</v>
+        <v>250.1386421422913</v>
       </c>
       <c r="V20" t="n">
-        <v>326.8079238533369</v>
+        <v>326.8079238533371</v>
       </c>
       <c r="W20" t="n">
-        <v>328.2519757830148</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X20" t="n">
-        <v>341.4686393609607</v>
+        <v>342.3016197277996</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.3016197277994</v>
+        <v>342.3016197277996</v>
       </c>
     </row>
     <row r="21">
@@ -28892,7 +28892,7 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>170.2462805163866</v>
+        <v>170.2462805163867</v>
       </c>
       <c r="H21" t="n">
         <v>155.5454465540429</v>
@@ -28904,25 +28904,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K21" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L21" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M21" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N21" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O21" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P21" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R21" t="n">
         <v>230.2155339931604</v>
@@ -28995,7 +28995,7 @@
         <v>194.0297218928977</v>
       </c>
       <c r="O22" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P22" t="n">
         <v>213.1704276735044</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="D23" t="n">
-        <v>337.8420968625625</v>
+        <v>307.9924411714915</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="H23" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="I23" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="J23" t="n">
-        <v>284.8169212814216</v>
+        <v>308.7591132436655</v>
       </c>
       <c r="K23" t="n">
-        <v>332.7042409059051</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="L23" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8831719056187</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="N23" t="n">
-        <v>337.8096666451764</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="O23" t="n">
-        <v>340.8727754496937</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="P23" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="Q23" t="n">
-        <v>340.0726042012855</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R23" t="n">
-        <v>338.0096586506946</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S23" t="n">
-        <v>314.6312384146032</v>
+        <v>283.4299048248382</v>
       </c>
       <c r="T23" t="n">
-        <v>225.5058304039513</v>
+        <v>256.7071639937163</v>
       </c>
       <c r="U23" t="n">
-        <v>279.2285335964116</v>
+        <v>254.4277856170241</v>
       </c>
       <c r="V23" t="n">
-        <v>308.2281821605244</v>
+        <v>339.4295157502894</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8082776867325</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X23" t="n">
-        <v>341.4686393609607</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
     </row>
     <row r="24">
@@ -29141,25 +29141,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K24" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L24" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M24" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N24" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O24" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P24" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R24" t="n">
         <v>230.2155339931604</v>
@@ -29229,10 +29229,10 @@
         <v>211.9672842814868</v>
       </c>
       <c r="N25" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O25" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P25" t="n">
         <v>213.1704276735044</v>
@@ -29272,58 +29272,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="C26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="D26" t="n">
-        <v>337.8420968625625</v>
+        <v>337.8420968625624</v>
       </c>
       <c r="E26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="F26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="H26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="I26" t="n">
-        <v>343.8082776867325</v>
+        <v>334.2061622639935</v>
       </c>
       <c r="J26" t="n">
-        <v>308.7591132436655</v>
+        <v>277.5577796539005</v>
       </c>
       <c r="K26" t="n">
-        <v>332.7042409059051</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="L26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="M26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="N26" t="n">
-        <v>337.8096666451764</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="O26" t="n">
-        <v>340.8727754496937</v>
+        <v>340.8727754496939</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="Q26" t="n">
-        <v>340.0726042012855</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="R26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="S26" t="n">
-        <v>312.1666552249723</v>
+        <v>314.6312384146032</v>
       </c>
       <c r="T26" t="n">
         <v>225.5058304039513</v>
@@ -29332,16 +29332,16 @@
         <v>248.0272000066465</v>
       </c>
       <c r="V26" t="n">
-        <v>308.2281821605244</v>
+        <v>325.7287266755654</v>
       </c>
       <c r="W26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="X26" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867327</v>
       </c>
     </row>
     <row r="27">
@@ -29378,25 +29378,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K27" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L27" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M27" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N27" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O27" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P27" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R27" t="n">
         <v>230.2155339931604</v>
@@ -29405,10 +29405,10 @@
         <v>237.7734326579268</v>
       </c>
       <c r="T27" t="n">
-        <v>244.2967850150117</v>
+        <v>244.2967850150118</v>
       </c>
       <c r="U27" t="n">
-        <v>258.0396054120886</v>
+        <v>258.0396054120887</v>
       </c>
       <c r="V27" t="n">
         <v>255.0969898936781</v>
@@ -29466,10 +29466,10 @@
         <v>211.9672842814868</v>
       </c>
       <c r="N28" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O28" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P28" t="n">
         <v>213.1704276735044</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="C29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="D29" t="n">
-        <v>307.9924411714916</v>
+        <v>307.9924411714915</v>
       </c>
       <c r="E29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="F29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="G29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="H29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="I29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="J29" t="n">
         <v>308.7591132436655</v>
       </c>
       <c r="K29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="L29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="M29" t="n">
-        <v>339.8831719056187</v>
+        <v>339.8831719056188</v>
       </c>
       <c r="N29" t="n">
-        <v>337.8096666451764</v>
+        <v>337.8096666451765</v>
       </c>
       <c r="O29" t="n">
-        <v>340.8727754496937</v>
+        <v>340.8727754496939</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="Q29" t="n">
-        <v>340.0726042012855</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="R29" t="n">
-        <v>343.8082776867325</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S29" t="n">
         <v>283.4299048248382</v>
       </c>
       <c r="T29" t="n">
-        <v>225.5058304039513</v>
+        <v>256.7071639937163</v>
       </c>
       <c r="U29" t="n">
-        <v>279.2285335964116</v>
+        <v>263.551331191286</v>
       </c>
       <c r="V29" t="n">
-        <v>326.0946853364784</v>
+        <v>339.4295157502894</v>
       </c>
       <c r="W29" t="n">
-        <v>343.8082776867325</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
     </row>
     <row r="30">
@@ -29615,25 +29615,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K30" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L30" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M30" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N30" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O30" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P30" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R30" t="n">
         <v>230.2155339931604</v>
@@ -29642,7 +29642,7 @@
         <v>237.7734326579268</v>
       </c>
       <c r="T30" t="n">
-        <v>244.2967850150117</v>
+        <v>244.2967850150118</v>
       </c>
       <c r="U30" t="n">
         <v>258.0396054120887</v>
@@ -29703,10 +29703,10 @@
         <v>211.9672842814868</v>
       </c>
       <c r="N31" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O31" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P31" t="n">
         <v>213.1704276735044</v>
@@ -29746,67 +29746,67 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="C32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="D32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="E32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="F32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="G32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="H32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="I32" t="n">
-        <v>344.945540863635</v>
+        <v>334.2061622639935</v>
       </c>
       <c r="J32" t="n">
-        <v>277.5577796539004</v>
+        <v>277.5577796539005</v>
       </c>
       <c r="K32" t="n">
-        <v>344.945540863635</v>
+        <v>342.7484540065858</v>
       </c>
       <c r="L32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="M32" t="n">
-        <v>339.8831719056187</v>
+        <v>339.8831719056188</v>
       </c>
       <c r="N32" t="n">
-        <v>337.8096666451764</v>
+        <v>337.8096666451765</v>
       </c>
       <c r="O32" t="n">
-        <v>340.8727754496937</v>
+        <v>340.8727754496939</v>
       </c>
       <c r="P32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="Q32" t="n">
-        <v>340.0726042012855</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="S32" t="n">
-        <v>333.2109801074167</v>
+        <v>308.722454686023</v>
       </c>
       <c r="T32" t="n">
-        <v>237.8619148084488</v>
+        <v>225.5058304039513</v>
       </c>
       <c r="U32" t="n">
-        <v>248.0272000066465</v>
+        <v>297.8082752892255</v>
       </c>
       <c r="V32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
       <c r="W32" t="n">
         <v>317.0122616388729</v>
@@ -29815,7 +29815,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.945540863635</v>
+        <v>344.9455408636352</v>
       </c>
     </row>
     <row r="33">
@@ -29852,25 +29852,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K33" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L33" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M33" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N33" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O33" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P33" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q33" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R33" t="n">
         <v>230.2155339931604</v>
@@ -29940,10 +29940,10 @@
         <v>211.9672842814868</v>
       </c>
       <c r="N34" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O34" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P34" t="n">
         <v>213.1704276735044</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="C35" t="n">
-        <v>344.632719685229</v>
+        <v>324.1616304280957</v>
       </c>
       <c r="D35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="E35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="F35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="G35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="H35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="I35" t="n">
-        <v>344.632719685229</v>
+        <v>334.2061622639935</v>
       </c>
       <c r="J35" t="n">
-        <v>319.8998350582877</v>
+        <v>277.5577796539005</v>
       </c>
       <c r="K35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="L35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="M35" t="n">
-        <v>344.632719685229</v>
+        <v>339.8831719056188</v>
       </c>
       <c r="N35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="O35" t="n">
-        <v>341.1660987575489</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="P35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="Q35" t="n">
-        <v>340.0726042012855</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="R35" t="n">
-        <v>338.0096586506946</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S35" t="n">
         <v>283.4299048248382</v>
       </c>
       <c r="T35" t="n">
-        <v>225.5058304039513</v>
+        <v>267.847885808339</v>
       </c>
       <c r="U35" t="n">
         <v>248.0272000066465</v>
       </c>
       <c r="V35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="W35" t="n">
-        <v>317.0122616388729</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="X35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.632719685229</v>
+        <v>344.6327196852291</v>
       </c>
     </row>
     <row r="36">
@@ -30089,25 +30089,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K36" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L36" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M36" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N36" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O36" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P36" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R36" t="n">
         <v>230.2155339931604</v>
@@ -30177,10 +30177,10 @@
         <v>211.9672842814868</v>
       </c>
       <c r="N37" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O37" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P37" t="n">
         <v>213.1704276735044</v>
@@ -30244,7 +30244,7 @@
         <v>344.455101784644</v>
       </c>
       <c r="J38" t="n">
-        <v>319.3264338990431</v>
+        <v>277.5577796539005</v>
       </c>
       <c r="K38" t="n">
         <v>344.455101784644</v>
@@ -30256,10 +30256,10 @@
         <v>344.455101784644</v>
       </c>
       <c r="N38" t="n">
+        <v>337.8096666451765</v>
+      </c>
+      <c r="O38" t="n">
         <v>344.455101784644</v>
-      </c>
-      <c r="O38" t="n">
-        <v>340.8727754496937</v>
       </c>
       <c r="P38" t="n">
         <v>344.455101784644</v>
@@ -30268,25 +30268,25 @@
         <v>344.455101784644</v>
       </c>
       <c r="R38" t="n">
-        <v>338.0096586506946</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S38" t="n">
-        <v>283.4299048248382</v>
+        <v>293.0995217258879</v>
       </c>
       <c r="T38" t="n">
         <v>225.5058304039513</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0272000066465</v>
+        <v>289.7958542517896</v>
       </c>
       <c r="V38" t="n">
+        <v>308.2281821605244</v>
+      </c>
+      <c r="W38" t="n">
         <v>344.455101784644</v>
       </c>
-      <c r="W38" t="n">
-        <v>317.8211526807407</v>
-      </c>
       <c r="X38" t="n">
-        <v>341.4686393609607</v>
+        <v>344.455101784644</v>
       </c>
       <c r="Y38" t="n">
         <v>344.455101784644</v>
@@ -30323,28 +30323,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J39" t="n">
-        <v>196.1993922068906</v>
+        <v>196.1993922068907</v>
       </c>
       <c r="K39" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L39" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M39" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N39" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O39" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P39" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R39" t="n">
         <v>230.2155339931604</v>
@@ -30353,7 +30353,7 @@
         <v>237.7734326579268</v>
       </c>
       <c r="T39" t="n">
-        <v>244.2967850150117</v>
+        <v>244.2967850150118</v>
       </c>
       <c r="U39" t="n">
         <v>258.0396054120887</v>
@@ -30414,10 +30414,10 @@
         <v>211.9672842814868</v>
       </c>
       <c r="N40" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O40" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P40" t="n">
         <v>213.1704276735044</v>
@@ -30463,7 +30463,7 @@
         <v>343.9551144074438</v>
       </c>
       <c r="D41" t="n">
-        <v>306.6407632727974</v>
+        <v>338.9963466093045</v>
       </c>
       <c r="E41" t="n">
         <v>343.9551144074438</v>
@@ -30478,13 +30478,13 @@
         <v>343.9551144074438</v>
       </c>
       <c r="I41" t="n">
-        <v>343.9551144074438</v>
+        <v>334.2061622639935</v>
       </c>
       <c r="J41" t="n">
-        <v>311.1580200202522</v>
+        <v>311.1580200202524</v>
       </c>
       <c r="K41" t="n">
-        <v>332.7042409059051</v>
+        <v>332.7042409059052</v>
       </c>
       <c r="L41" t="n">
         <v>343.9551144074438</v>
@@ -30493,37 +30493,37 @@
         <v>343.9551144074438</v>
       </c>
       <c r="N41" t="n">
-        <v>343.9551144074438</v>
+        <v>337.8096666451765</v>
       </c>
       <c r="O41" t="n">
-        <v>340.8727754496937</v>
+        <v>340.8727754496939</v>
       </c>
       <c r="P41" t="n">
         <v>343.9551144074438</v>
       </c>
       <c r="Q41" t="n">
-        <v>340.0726042012855</v>
+        <v>343.9551144074438</v>
       </c>
       <c r="R41" t="n">
-        <v>343.9551144074438</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S41" t="n">
-        <v>301.9990552563371</v>
+        <v>283.4299048248382</v>
       </c>
       <c r="T41" t="n">
-        <v>259.1060707703031</v>
+        <v>259.1060707703032</v>
       </c>
       <c r="U41" t="n">
         <v>248.0272000066465</v>
       </c>
       <c r="V41" t="n">
-        <v>308.2281821605244</v>
+        <v>341.8284225268764</v>
       </c>
       <c r="W41" t="n">
-        <v>343.9551144074438</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
-        <v>343.9551144074438</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y41" t="n">
         <v>343.9551144074438</v>
@@ -30563,25 +30563,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K42" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L42" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M42" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197055</v>
       </c>
       <c r="N42" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170273</v>
       </c>
       <c r="O42" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P42" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R42" t="n">
         <v>230.2155339931604</v>
@@ -30633,7 +30633,7 @@
         <v>170.4377865434967</v>
       </c>
       <c r="H43" t="n">
-        <v>176.2726981868028</v>
+        <v>176.2726981868029</v>
       </c>
       <c r="I43" t="n">
         <v>195.1036758418271</v>
@@ -30651,10 +30651,10 @@
         <v>211.9672842814868</v>
       </c>
       <c r="N43" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O43" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P43" t="n">
         <v>213.1704276735044</v>
@@ -30697,10 +30697,10 @@
         <v>343.8082776867325</v>
       </c>
       <c r="C44" t="n">
-        <v>343.8082776867325</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D44" t="n">
-        <v>307.9924411714912</v>
+        <v>337.8420968625625</v>
       </c>
       <c r="E44" t="n">
         <v>343.8082776867325</v>
@@ -30715,40 +30715,40 @@
         <v>343.8082776867325</v>
       </c>
       <c r="I44" t="n">
-        <v>343.8082776867325</v>
+        <v>342.7457797742</v>
       </c>
       <c r="J44" t="n">
-        <v>308.7591132436654</v>
+        <v>277.5577796539004</v>
       </c>
       <c r="K44" t="n">
-        <v>332.7042409059049</v>
+        <v>332.7042409059051</v>
       </c>
       <c r="L44" t="n">
         <v>343.8082776867325</v>
       </c>
       <c r="M44" t="n">
-        <v>339.8831719056184</v>
+        <v>343.8082776867325</v>
       </c>
       <c r="N44" t="n">
-        <v>337.8096666451762</v>
+        <v>337.8096666451764</v>
       </c>
       <c r="O44" t="n">
-        <v>340.8727754496935</v>
+        <v>340.8727754496937</v>
       </c>
       <c r="P44" t="n">
         <v>343.8082776867325</v>
       </c>
       <c r="Q44" t="n">
-        <v>340.0726042012853</v>
+        <v>340.0726042012855</v>
       </c>
       <c r="R44" t="n">
-        <v>341.5774840537487</v>
+        <v>343.8082776867325</v>
       </c>
       <c r="S44" t="n">
-        <v>283.4299048248382</v>
+        <v>298.9629856199353</v>
       </c>
       <c r="T44" t="n">
-        <v>225.5058304039513</v>
+        <v>256.7071639937163</v>
       </c>
       <c r="U44" t="n">
         <v>279.2285335964116</v>
@@ -30757,10 +30757,10 @@
         <v>339.4295157502895</v>
       </c>
       <c r="W44" t="n">
-        <v>343.8082776867325</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
-        <v>343.8082776867325</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
         <v>343.8082776867325</v>
@@ -30794,37 +30794,37 @@
         <v>155.5454465540429</v>
       </c>
       <c r="I45" t="n">
-        <v>158.111813911839</v>
+        <v>158.1118139118391</v>
       </c>
       <c r="J45" t="n">
-        <v>196.1993922068906</v>
+        <v>196.1993922068907</v>
       </c>
       <c r="K45" t="n">
-        <v>207.0515769377508</v>
+        <v>207.0515769377509</v>
       </c>
       <c r="L45" t="n">
-        <v>202.3719228261287</v>
+        <v>202.3719228261289</v>
       </c>
       <c r="M45" t="n">
-        <v>204.3858515197052</v>
+        <v>204.3858515197054</v>
       </c>
       <c r="N45" t="n">
-        <v>186.144783317027</v>
+        <v>186.1447833170272</v>
       </c>
       <c r="O45" t="n">
-        <v>206.7579964582771</v>
+        <v>206.7579964582773</v>
       </c>
       <c r="P45" t="n">
-        <v>197.6750885933372</v>
+        <v>197.6750885933373</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.0786366949012</v>
+        <v>214.0786366949013</v>
       </c>
       <c r="R45" t="n">
-        <v>230.2155339931603</v>
+        <v>230.2155339931604</v>
       </c>
       <c r="S45" t="n">
-        <v>237.7734326579267</v>
+        <v>237.7734326579268</v>
       </c>
       <c r="T45" t="n">
         <v>244.2967850150118</v>
@@ -30876,31 +30876,31 @@
         <v>195.1036758418271</v>
       </c>
       <c r="J46" t="n">
-        <v>200.1492457113303</v>
+        <v>200.1492457113304</v>
       </c>
       <c r="K46" t="n">
-        <v>199.4279442247081</v>
+        <v>199.4279442247082</v>
       </c>
       <c r="L46" t="n">
-        <v>206.1113087108742</v>
+        <v>206.1113087108743</v>
       </c>
       <c r="M46" t="n">
-        <v>211.9672842814867</v>
+        <v>211.9672842814868</v>
       </c>
       <c r="N46" t="n">
         <v>194.0297218928976</v>
       </c>
       <c r="O46" t="n">
-        <v>212.5600441937985</v>
+        <v>212.5600441937986</v>
       </c>
       <c r="P46" t="n">
-        <v>213.1704276735043</v>
+        <v>213.1704276735044</v>
       </c>
       <c r="Q46" t="n">
-        <v>238.8307194017215</v>
+        <v>238.8307194017216</v>
       </c>
       <c r="R46" t="n">
-        <v>270.8947738039675</v>
+        <v>270.8947738039676</v>
       </c>
       <c r="S46" t="n">
         <v>263.9635848803536</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H11" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597656</v>
       </c>
       <c r="I11" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458923</v>
       </c>
       <c r="J11" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K11" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L11" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774318</v>
       </c>
       <c r="M11" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N11" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928368</v>
       </c>
       <c r="O11" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054703</v>
       </c>
       <c r="P11" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R11" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S11" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548388</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H12" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I12" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160948</v>
       </c>
       <c r="J12" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442674</v>
       </c>
       <c r="K12" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L12" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M12" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N12" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O12" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394483</v>
       </c>
       <c r="P12" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R12" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828107</v>
       </c>
       <c r="S12" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.0879535237296787</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056894</v>
       </c>
       <c r="I13" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J13" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688284</v>
       </c>
       <c r="K13" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L13" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M13" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N13" t="n">
-        <v>13.45928786310627</v>
+        <v>13.4592878631062</v>
       </c>
       <c r="O13" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P13" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127914</v>
       </c>
       <c r="R13" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881734</v>
       </c>
       <c r="S13" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722634</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709753</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H14" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597656</v>
       </c>
       <c r="I14" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458923</v>
       </c>
       <c r="J14" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K14" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L14" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774318</v>
       </c>
       <c r="M14" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N14" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928368</v>
       </c>
       <c r="O14" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054703</v>
       </c>
       <c r="P14" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R14" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S14" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548388</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H15" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I15" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160948</v>
       </c>
       <c r="J15" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442674</v>
       </c>
       <c r="K15" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L15" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M15" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N15" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O15" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394483</v>
       </c>
       <c r="P15" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R15" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828107</v>
       </c>
       <c r="S15" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.0879535237296787</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056894</v>
       </c>
       <c r="I16" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J16" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688284</v>
       </c>
       <c r="K16" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L16" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M16" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N16" t="n">
-        <v>13.45928786310627</v>
+        <v>13.4592878631062</v>
       </c>
       <c r="O16" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P16" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127914</v>
       </c>
       <c r="R16" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881734</v>
       </c>
       <c r="S16" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722634</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709753</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H17" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597656</v>
       </c>
       <c r="I17" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458923</v>
       </c>
       <c r="J17" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K17" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L17" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774318</v>
       </c>
       <c r="M17" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N17" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928368</v>
       </c>
       <c r="O17" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054703</v>
       </c>
       <c r="P17" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R17" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S17" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548388</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H18" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I18" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160948</v>
       </c>
       <c r="J18" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442674</v>
       </c>
       <c r="K18" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L18" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M18" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N18" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O18" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394483</v>
       </c>
       <c r="P18" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R18" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828107</v>
       </c>
       <c r="S18" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.0879535237296787</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056894</v>
       </c>
       <c r="I19" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J19" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688284</v>
       </c>
       <c r="K19" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L19" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M19" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N19" t="n">
-        <v>13.45928786310627</v>
+        <v>13.4592878631062</v>
       </c>
       <c r="O19" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P19" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127914</v>
       </c>
       <c r="R19" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881734</v>
       </c>
       <c r="S19" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722634</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709753</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H20" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597656</v>
       </c>
       <c r="I20" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458923</v>
       </c>
       <c r="J20" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K20" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L20" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774318</v>
       </c>
       <c r="M20" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N20" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928368</v>
       </c>
       <c r="O20" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054703</v>
       </c>
       <c r="P20" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R20" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S20" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548388</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H21" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I21" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160948</v>
       </c>
       <c r="J21" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442674</v>
       </c>
       <c r="K21" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L21" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M21" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N21" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O21" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394483</v>
       </c>
       <c r="P21" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R21" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828107</v>
       </c>
       <c r="S21" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U21" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.0879535237296787</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056894</v>
       </c>
       <c r="I22" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J22" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688284</v>
       </c>
       <c r="K22" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L22" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M22" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N22" t="n">
-        <v>13.45928786310627</v>
+        <v>13.4592878631062</v>
       </c>
       <c r="O22" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P22" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127914</v>
       </c>
       <c r="R22" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881734</v>
       </c>
       <c r="S22" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722634</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709753</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H23" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597656</v>
       </c>
       <c r="I23" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458923</v>
       </c>
       <c r="J23" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K23" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L23" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774318</v>
       </c>
       <c r="M23" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N23" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928368</v>
       </c>
       <c r="O23" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054703</v>
       </c>
       <c r="P23" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R23" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S23" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548388</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H24" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I24" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160948</v>
       </c>
       <c r="J24" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442674</v>
       </c>
       <c r="K24" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L24" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M24" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N24" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O24" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394483</v>
       </c>
       <c r="P24" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R24" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828107</v>
       </c>
       <c r="S24" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.0879535237296787</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056894</v>
       </c>
       <c r="I25" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J25" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688284</v>
       </c>
       <c r="K25" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L25" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M25" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N25" t="n">
-        <v>13.45928786310627</v>
+        <v>13.4592878631062</v>
       </c>
       <c r="O25" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P25" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127914</v>
       </c>
       <c r="R25" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881734</v>
       </c>
       <c r="S25" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722634</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709753</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H26" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597656</v>
       </c>
       <c r="I26" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458923</v>
       </c>
       <c r="J26" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K26" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L26" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774318</v>
       </c>
       <c r="M26" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N26" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928368</v>
       </c>
       <c r="O26" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054703</v>
       </c>
       <c r="P26" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R26" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S26" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548388</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H27" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I27" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160948</v>
       </c>
       <c r="J27" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442674</v>
       </c>
       <c r="K27" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L27" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M27" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N27" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O27" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394483</v>
       </c>
       <c r="P27" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R27" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828107</v>
       </c>
       <c r="S27" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.0879535237296787</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056894</v>
       </c>
       <c r="I28" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J28" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688284</v>
       </c>
       <c r="K28" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L28" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M28" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N28" t="n">
-        <v>13.45928786310627</v>
+        <v>13.4592878631062</v>
       </c>
       <c r="O28" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P28" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127914</v>
       </c>
       <c r="R28" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881734</v>
       </c>
       <c r="S28" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722634</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709753</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H29" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597656</v>
       </c>
       <c r="I29" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458923</v>
       </c>
       <c r="J29" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K29" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L29" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774318</v>
       </c>
       <c r="M29" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N29" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928368</v>
       </c>
       <c r="O29" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054703</v>
       </c>
       <c r="P29" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R29" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S29" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548388</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H30" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I30" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160948</v>
       </c>
       <c r="J30" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442674</v>
       </c>
       <c r="K30" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L30" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M30" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N30" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O30" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394483</v>
       </c>
       <c r="P30" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R30" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828107</v>
       </c>
       <c r="S30" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.0879535237296787</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056894</v>
       </c>
       <c r="I31" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J31" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688284</v>
       </c>
       <c r="K31" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L31" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M31" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N31" t="n">
-        <v>13.45928786310627</v>
+        <v>13.4592878631062</v>
       </c>
       <c r="O31" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P31" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127914</v>
       </c>
       <c r="R31" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881734</v>
       </c>
       <c r="S31" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722634</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709753</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H32" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597656</v>
       </c>
       <c r="I32" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458923</v>
       </c>
       <c r="J32" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K32" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L32" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774318</v>
       </c>
       <c r="M32" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N32" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928368</v>
       </c>
       <c r="O32" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054703</v>
       </c>
       <c r="P32" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R32" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S32" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548388</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H33" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I33" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160948</v>
       </c>
       <c r="J33" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442674</v>
       </c>
       <c r="K33" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L33" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M33" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N33" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O33" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394483</v>
       </c>
       <c r="P33" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R33" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828107</v>
       </c>
       <c r="S33" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.0879535237296787</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056894</v>
       </c>
       <c r="I34" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J34" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688284</v>
       </c>
       <c r="K34" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L34" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M34" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N34" t="n">
-        <v>13.45928786310627</v>
+        <v>13.4592878631062</v>
       </c>
       <c r="O34" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P34" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127914</v>
       </c>
       <c r="R34" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881734</v>
       </c>
       <c r="S34" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722634</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709753</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H35" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597656</v>
       </c>
       <c r="I35" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458923</v>
       </c>
       <c r="J35" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K35" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L35" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774318</v>
       </c>
       <c r="M35" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N35" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928368</v>
       </c>
       <c r="O35" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054703</v>
       </c>
       <c r="P35" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R35" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S35" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548388</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H36" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I36" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160948</v>
       </c>
       <c r="J36" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442674</v>
       </c>
       <c r="K36" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L36" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M36" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N36" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O36" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394483</v>
       </c>
       <c r="P36" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R36" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828107</v>
       </c>
       <c r="S36" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.0879535237296787</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056894</v>
       </c>
       <c r="I37" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J37" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688284</v>
       </c>
       <c r="K37" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L37" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M37" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N37" t="n">
-        <v>13.45928786310627</v>
+        <v>13.4592878631062</v>
       </c>
       <c r="O37" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P37" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127914</v>
       </c>
       <c r="R37" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881734</v>
       </c>
       <c r="S37" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722634</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709753</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H38" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597656</v>
       </c>
       <c r="I38" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458923</v>
       </c>
       <c r="J38" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K38" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L38" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774318</v>
       </c>
       <c r="M38" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N38" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928368</v>
       </c>
       <c r="O38" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054703</v>
       </c>
       <c r="P38" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R38" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S38" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548388</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H39" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I39" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160948</v>
       </c>
       <c r="J39" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442674</v>
       </c>
       <c r="K39" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L39" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M39" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N39" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O39" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394483</v>
       </c>
       <c r="P39" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R39" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828107</v>
       </c>
       <c r="S39" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.0879535237296787</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056894</v>
       </c>
       <c r="I40" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J40" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688284</v>
       </c>
       <c r="K40" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L40" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M40" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N40" t="n">
-        <v>13.45928786310627</v>
+        <v>13.4592878631062</v>
       </c>
       <c r="O40" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P40" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127914</v>
       </c>
       <c r="R40" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881734</v>
       </c>
       <c r="S40" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722634</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709753</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504485</v>
       </c>
       <c r="H41" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597657</v>
       </c>
       <c r="I41" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458924</v>
       </c>
       <c r="J41" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196477</v>
       </c>
       <c r="K41" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218826</v>
       </c>
       <c r="L41" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774319</v>
       </c>
       <c r="M41" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869934</v>
       </c>
       <c r="N41" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928369</v>
       </c>
       <c r="O41" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054704</v>
       </c>
       <c r="P41" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355158</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469489</v>
       </c>
       <c r="R41" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029727</v>
       </c>
       <c r="S41" t="n">
-        <v>4.468111329059622</v>
+        <v>4.4681113290596</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548389</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203588</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319358</v>
       </c>
       <c r="H42" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545275</v>
       </c>
       <c r="I42" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160949</v>
       </c>
       <c r="J42" t="n">
-        <v>9.911751126442722</v>
+        <v>9.911751126442676</v>
       </c>
       <c r="K42" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558237</v>
       </c>
       <c r="L42" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616659</v>
       </c>
       <c r="M42" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357426</v>
       </c>
       <c r="N42" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838931</v>
       </c>
       <c r="O42" t="n">
-        <v>24.96090076394495</v>
+        <v>24.96090076394484</v>
       </c>
       <c r="P42" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494922</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.39174619488366</v>
+        <v>13.3917461948836</v>
       </c>
       <c r="R42" t="n">
-        <v>6.513659948281101</v>
+        <v>6.513659948281071</v>
       </c>
       <c r="S42" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746701</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331096</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785254</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967871</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056895</v>
       </c>
       <c r="I43" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797975</v>
       </c>
       <c r="J43" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688285</v>
       </c>
       <c r="K43" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241176</v>
       </c>
       <c r="L43" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613787</v>
       </c>
       <c r="M43" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337136</v>
       </c>
       <c r="N43" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310621</v>
       </c>
       <c r="O43" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044586</v>
       </c>
       <c r="P43" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636041</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127916</v>
       </c>
       <c r="R43" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881735</v>
       </c>
       <c r="S43" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361764</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722635</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709754</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1960772936504507</v>
+        <v>0.1960772936504495</v>
       </c>
       <c r="H44" t="n">
-        <v>2.008076583597679</v>
+        <v>2.008076583597666</v>
       </c>
       <c r="I44" t="n">
-        <v>7.559269863459009</v>
+        <v>7.55926986345896</v>
       </c>
       <c r="J44" t="n">
-        <v>16.64181520196496</v>
+        <v>16.64181520196485</v>
       </c>
       <c r="K44" t="n">
-        <v>24.94176704218854</v>
+        <v>24.94176704218838</v>
       </c>
       <c r="L44" t="n">
-        <v>30.94246751774353</v>
+        <v>30.94246751774333</v>
       </c>
       <c r="M44" t="n">
-        <v>34.42945708869973</v>
+        <v>34.42945708869951</v>
       </c>
       <c r="N44" t="n">
-        <v>34.98656169928407</v>
+        <v>34.98656169928385</v>
       </c>
       <c r="O44" t="n">
-        <v>33.0368181105474</v>
+        <v>33.03681811054719</v>
       </c>
       <c r="P44" t="n">
-        <v>28.1961599235519</v>
+        <v>28.19615992355171</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.17414184469513</v>
+        <v>21.17414184469499</v>
       </c>
       <c r="R44" t="n">
-        <v>12.31684029727013</v>
+        <v>12.31684029727006</v>
       </c>
       <c r="S44" t="n">
-        <v>4.46811132905965</v>
+        <v>4.468111329059622</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8583283529548484</v>
+        <v>0.8583283529548429</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01568618349203605</v>
+        <v>0.01568618349203595</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.104910601031937</v>
+        <v>0.1049106010319363</v>
       </c>
       <c r="H45" t="n">
-        <v>1.013215541545286</v>
+        <v>1.01321554154528</v>
       </c>
       <c r="I45" t="n">
-        <v>3.612053588160989</v>
+        <v>3.612053588160966</v>
       </c>
       <c r="J45" t="n">
-        <v>9.911751126442786</v>
+        <v>9.911751126442722</v>
       </c>
       <c r="K45" t="n">
-        <v>16.94076139558256</v>
+        <v>16.94076139558246</v>
       </c>
       <c r="L45" t="n">
-        <v>22.77894431616685</v>
+        <v>22.7789443161667</v>
       </c>
       <c r="M45" t="n">
-        <v>26.58195360357456</v>
+        <v>26.58195360357439</v>
       </c>
       <c r="N45" t="n">
-        <v>27.28549881838961</v>
+        <v>27.28549881838944</v>
       </c>
       <c r="O45" t="n">
-        <v>24.96090076394511</v>
+        <v>24.96090076394495</v>
       </c>
       <c r="P45" t="n">
-        <v>20.03332345494944</v>
+        <v>20.03332345494931</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.39174619488375</v>
+        <v>13.39174619488366</v>
       </c>
       <c r="R45" t="n">
-        <v>6.513659948281143</v>
+        <v>6.513659948281101</v>
       </c>
       <c r="S45" t="n">
-        <v>1.948668400746723</v>
+        <v>1.948668400746711</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4228633436331143</v>
+        <v>0.4228633436331116</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006902013225785331</v>
+        <v>0.006902013225785287</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08795352372967968</v>
+        <v>0.08795352372967913</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7819867837056982</v>
+        <v>0.7819867837056932</v>
       </c>
       <c r="I46" t="n">
-        <v>2.645002331798004</v>
+        <v>2.645002331797988</v>
       </c>
       <c r="J46" t="n">
-        <v>6.218314127688354</v>
+        <v>6.218314127688314</v>
       </c>
       <c r="K46" t="n">
-        <v>10.21860030241187</v>
+        <v>10.21860030241181</v>
       </c>
       <c r="L46" t="n">
-        <v>13.07629024613802</v>
+        <v>13.07629024613793</v>
       </c>
       <c r="M46" t="n">
-        <v>13.78711463337152</v>
+        <v>13.78711463337143</v>
       </c>
       <c r="N46" t="n">
-        <v>13.45928786310636</v>
+        <v>13.45928786310627</v>
       </c>
       <c r="O46" t="n">
-        <v>12.431830790446</v>
+        <v>12.43183079044592</v>
       </c>
       <c r="P46" t="n">
-        <v>10.63757890636053</v>
+        <v>10.63757890636046</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.364908246127997</v>
+        <v>7.36490824612795</v>
       </c>
       <c r="R46" t="n">
-        <v>3.954710257881779</v>
+        <v>3.954710257881753</v>
       </c>
       <c r="S46" t="n">
-        <v>1.532790045361781</v>
+        <v>1.532790045361771</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3758014195722676</v>
+        <v>0.3758014195722653</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004797464930709807</v>
+        <v>0.004797464930709776</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,22 +35404,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.9122760365766</v>
       </c>
       <c r="J11" t="n">
-        <v>7.439019878191289</v>
+        <v>0.0792659957182309</v>
       </c>
       <c r="K11" t="n">
-        <v>7.414197394664939</v>
+        <v>7.414197394664953</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.2352663949512817</v>
       </c>
       <c r="N11" t="n">
-        <v>1.096560204448394</v>
+        <v>2.308771655393571</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35428,25 +35428,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.04583409928456206</v>
       </c>
       <c r="R11" t="n">
-        <v>2.108779649875373</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.029673768590953</v>
+        <v>7.092619319181741</v>
       </c>
       <c r="T11" t="n">
         <v>7.439019878191289</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.439019878191289</v>
       </c>
       <c r="V11" t="n">
         <v>7.439019878191289</v>
       </c>
       <c r="W11" t="n">
-        <v>7.439019878191289</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.012421037435884</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="D14" t="n">
-        <v>8.012421037435884</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,13 +35641,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.059112757287787</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.615037928201446</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="K14" t="n">
-        <v>7.561034115376231</v>
+        <v>5.767155387325135</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.455608376104863</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35668,22 +35668,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.25561637058666</v>
+        <v>2.255616370586722</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.433070483518492</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="U14" t="n">
-        <v>8.012421037435884</v>
+        <v>5.433070483518563</v>
       </c>
       <c r="V14" t="n">
-        <v>8.012421037435884</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="W14" t="n">
-        <v>8.012421037435884</v>
+        <v>8.012421037435988</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.782636285399917</v>
+        <v>4.466140957623164</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>16.18083491622576</v>
       </c>
       <c r="K17" t="n">
-        <v>9.284557643488391</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.105626643774769</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.116023099699532</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.916194348107865</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.97913989869874</v>
       </c>
       <c r="S17" t="n">
         <v>16.18083491622576</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>9.005671836124506</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>16.18083491622576</v>
@@ -35923,7 +35923,7 @@
         <v>16.18083491622576</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.5201591884327286</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>18.57974169281249</v>
+        <v>18.57974169281273</v>
       </c>
       <c r="D20" t="n">
-        <v>18.57974169281249</v>
+        <v>10.00900151341506</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,25 +36115,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.095457463805928</v>
+        <v>8.095457463806042</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>18.57974169281273</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>9.597378821894395</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.418447822180781</v>
+        <v>2.418447822180724</v>
       </c>
       <c r="N20" t="n">
-        <v>2.944105438672111</v>
+        <v>4.491953082623013</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.428844278105657</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,25 +36142,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.291961077104865</v>
       </c>
       <c r="S20" t="n">
-        <v>18.57974169281249</v>
+        <v>18.57974169281273</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>18.57974169281249</v>
+        <v>2.11144213564485</v>
       </c>
       <c r="V20" t="n">
-        <v>18.57974169281249</v>
+        <v>18.57974169281273</v>
       </c>
       <c r="W20" t="n">
-        <v>11.23971414414183</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.8329803668388536</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36334,10 +36334,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.34048361410208</v>
+        <v>21.34048361410214</v>
       </c>
       <c r="D23" t="n">
-        <v>31.20133358976506</v>
+        <v>1.351677898694106</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36352,25 +36352,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9.602115422739018</v>
+        <v>9.602115422739075</v>
       </c>
       <c r="J23" t="n">
-        <v>7.25914162752116</v>
+        <v>31.201333589765</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>11.10403678082741</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3.925105781113757</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.998611041556046</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.935502237038705</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,22 +36382,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.20133358976506</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>31.201333589765</v>
       </c>
       <c r="U23" t="n">
-        <v>31.20133358976506</v>
+        <v>6.400585610377632</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>31.201333589765</v>
       </c>
       <c r="W23" t="n">
-        <v>26.79601604785961</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2.339638325771887</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>21.34048361410208</v>
+        <v>21.3404836141022</v>
       </c>
       <c r="D26" t="n">
-        <v>31.20133358976506</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36589,22 +36589,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.602115422739018</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>31.20133358976506</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>11.10403678082747</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.925105781113871</v>
+        <v>3.925105781113814</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>5.998611041556103</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36613,13 +36613,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>3.73567348544708</v>
       </c>
       <c r="R26" t="n">
-        <v>5.798619036037906</v>
+        <v>5.798619036037955</v>
       </c>
       <c r="S26" t="n">
-        <v>28.73675040013414</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36628,10 +36628,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>17.50054451504099</v>
       </c>
       <c r="W26" t="n">
-        <v>26.79601604785961</v>
+        <v>26.79601604785972</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>21.34048361410208</v>
+        <v>21.34048361410214</v>
       </c>
       <c r="D29" t="n">
-        <v>1.351677898694163</v>
+        <v>1.351677898694106</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,13 +36826,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.602115422739018</v>
+        <v>9.602115422739075</v>
       </c>
       <c r="J29" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="K29" t="n">
-        <v>11.10403678082747</v>
+        <v>11.10403678082741</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36850,28 +36850,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3.735673485447023</v>
       </c>
       <c r="R29" t="n">
-        <v>5.7986190360379</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>31.201333589765</v>
       </c>
       <c r="U29" t="n">
-        <v>31.20133358976506</v>
+        <v>15.52413118463947</v>
       </c>
       <c r="V29" t="n">
-        <v>17.86650317595399</v>
+        <v>31.201333589765</v>
       </c>
       <c r="W29" t="n">
-        <v>26.79601604785961</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.33963832577183</v>
+        <v>2.339638325771887</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.47774679100456</v>
+        <v>22.47774679100473</v>
       </c>
       <c r="D32" t="n">
-        <v>38.3047775908376</v>
+        <v>38.30477759083777</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.7393785996415</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>12.24129995772997</v>
+        <v>10.04421310068062</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37090,19 +37090,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.935882212940385</v>
+        <v>6.935882212940498</v>
       </c>
       <c r="S32" t="n">
-        <v>49.78107528257856</v>
+        <v>25.2925498611848</v>
       </c>
       <c r="T32" t="n">
-        <v>12.35608440449755</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>49.78107528257907</v>
       </c>
       <c r="V32" t="n">
-        <v>36.71735870311062</v>
+        <v>36.71735870311079</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>22.16492561259855</v>
+        <v>1.693836355465217</v>
       </c>
       <c r="D35" t="n">
-        <v>37.99195641243159</v>
+        <v>37.99195641243165</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10.4265574212355</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>42.34205540438727</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>11.92847877932396</v>
+        <v>11.9284787793239</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.749547779610339</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>6.823053040052613</v>
+        <v>6.8230530400525</v>
       </c>
       <c r="O35" t="n">
-        <v>0.2933233078551474</v>
+        <v>3.759944235535173</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.560115483943505</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37333,19 +37333,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>42.34205540438778</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>36.40453752470461</v>
+        <v>36.40453752470466</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>27.62045804635613</v>
       </c>
       <c r="X35" t="n">
-        <v>3.164080324268298</v>
+        <v>3.164080324268355</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -37540,49 +37540,49 @@
         <v>10.24893952065048</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76865424514267</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>11.75086087873893</v>
+        <v>11.75086087873883</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.571929879025333</v>
+        <v>4.571929879025163</v>
       </c>
       <c r="N38" t="n">
-        <v>6.645435139467622</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>3.582326334950096</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.382497583358546</v>
+        <v>4.382497583358429</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.669616901049739</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>41.76865424514308</v>
       </c>
       <c r="V38" t="n">
-        <v>36.2269196241196</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.8088910418677528</v>
+        <v>27.44284014577107</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>2.986462423683292</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -37759,7 +37759,7 @@
         <v>21.48732033481338</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>32.3555833365071</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.74895214345031</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>33.60024036635178</v>
+        <v>33.60024036635197</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.071942501825163</v>
+        <v>4.071942501824992</v>
       </c>
       <c r="N41" t="n">
-        <v>6.145447762267452</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37798,28 +37798,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>3.882510206158258</v>
       </c>
       <c r="R41" t="n">
-        <v>5.945455756749197</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>18.56915043149892</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>33.60024036635178</v>
+        <v>33.60024036635197</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>33.60024036635197</v>
       </c>
       <c r="W41" t="n">
-        <v>26.9428527685709</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.486475046483122</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -37993,10 +37993,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>21.34048361410203</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.351677898693765</v>
+        <v>31.20133358976506</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.602115422739018</v>
+        <v>8.539617510206487</v>
       </c>
       <c r="J44" t="n">
-        <v>31.20133358976511</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3.925105781113871</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,25 +38038,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>3.567825403054144</v>
+        <v>5.798619036037906</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>15.53308079509712</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>31.20133358976506</v>
       </c>
       <c r="U44" t="n">
-        <v>31.20133358976511</v>
+        <v>31.20133358976506</v>
       </c>
       <c r="V44" t="n">
-        <v>31.20133358976511</v>
+        <v>31.20133358976506</v>
       </c>
       <c r="W44" t="n">
-        <v>26.79601604785955</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.339638325771773</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
